--- a/data/trans_orig/Q4501_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q4501_R-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>9053</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4278</v>
+        <v>3901</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16594</v>
+        <v>17258</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03326941354762021</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01571955045752611</v>
+        <v>0.01433711009295959</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0609833185283132</v>
+        <v>0.06342329039694231</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -764,19 +764,19 @@
         <v>36012</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25679</v>
+        <v>25896</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47956</v>
+        <v>48814</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1387186545724818</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09891625311304081</v>
+        <v>0.09974941851661161</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1847237138263845</v>
+        <v>0.188029191726347</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -785,19 +785,19 @@
         <v>45065</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33461</v>
+        <v>32521</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60049</v>
+        <v>59551</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0847538700488923</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06292893043920925</v>
+        <v>0.06116259243435719</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1129331640736313</v>
+        <v>0.1119958271801847</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>47875</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36494</v>
+        <v>35013</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61045</v>
+        <v>60107</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1759364571424895</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.134112156434788</v>
+        <v>0.1286701603851808</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2243358058645483</v>
+        <v>0.220889427869986</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -835,19 +835,19 @@
         <v>92832</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77663</v>
+        <v>77976</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108760</v>
+        <v>109167</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3575855925837989</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2991563292112903</v>
+        <v>0.3003610147976405</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4189409035087348</v>
+        <v>0.4205083819699676</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>136</v>
@@ -856,19 +856,19 @@
         <v>140707</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>120877</v>
+        <v>118959</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>162908</v>
+        <v>161555</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2646246916070396</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.227331369535811</v>
+        <v>0.2237238443639379</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3063775465629845</v>
+        <v>0.3038344096532844</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>70182</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>57950</v>
+        <v>56307</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86392</v>
+        <v>85053</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2579139427646798</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2129633188212251</v>
+        <v>0.2069228888675224</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3174833061752524</v>
+        <v>0.3125632504932318</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>60</v>
@@ -906,19 +906,19 @@
         <v>64357</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51525</v>
+        <v>51433</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>80093</v>
+        <v>79602</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2479003971372265</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1984721448690112</v>
+        <v>0.1981176580114003</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3085177677829848</v>
+        <v>0.3066246412706007</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>132</v>
@@ -927,19 +927,19 @@
         <v>134539</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>115056</v>
+        <v>113698</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>155082</v>
+        <v>154333</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2530249369333474</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2163841907798623</v>
+        <v>0.2138295085497872</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2916608487665849</v>
+        <v>0.2902519961953748</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>67376</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53753</v>
+        <v>53816</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82710</v>
+        <v>83280</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.247603223155362</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1975388321035731</v>
+        <v>0.1977697793816195</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3039547234950746</v>
+        <v>0.3060482829167657</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -977,19 +977,19 @@
         <v>32481</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22060</v>
+        <v>21876</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44620</v>
+        <v>44886</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1251142285444249</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08497297937340272</v>
+        <v>0.08426686881152781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1718738851417278</v>
+        <v>0.1729016935308947</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -998,19 +998,19 @@
         <v>99857</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81661</v>
+        <v>83202</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119007</v>
+        <v>118270</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1877992904419485</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1535783879708215</v>
+        <v>0.1564757857811836</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2238141331050334</v>
+        <v>0.2224291316623993</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>77628</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62605</v>
+        <v>62750</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>93864</v>
+        <v>93011</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2852769633898485</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2300708497607422</v>
+        <v>0.2306032319776729</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3449434168182174</v>
+        <v>0.3418104343284139</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -1048,19 +1048,19 @@
         <v>33926</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23413</v>
+        <v>23607</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45107</v>
+        <v>45662</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1306811271620679</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09018474409300835</v>
+        <v>0.09093337245114498</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1737499934611229</v>
+        <v>0.1758878799069216</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>108</v>
@@ -1069,19 +1069,19 @@
         <v>111554</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>91683</v>
+        <v>93724</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>130514</v>
+        <v>130859</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2097972109687722</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1724274586831308</v>
+        <v>0.1762646007524336</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2454561539602846</v>
+        <v>0.2461051015559188</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>117754</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100267</v>
+        <v>98556</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138534</v>
+        <v>137955</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2388146976156752</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2033501754497529</v>
+        <v>0.1998796918067472</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2809594225576008</v>
+        <v>0.2797850727936594</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>230</v>
@@ -1194,19 +1194,19 @@
         <v>233606</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>210769</v>
+        <v>212374</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>256115</v>
+        <v>255143</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4635500773555092</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4182348900980343</v>
+        <v>0.4214199301689405</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5082169936852654</v>
+        <v>0.5062878049174671</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>337</v>
@@ -1215,19 +1215,19 @@
         <v>351359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>321891</v>
+        <v>320282</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>381941</v>
+        <v>382036</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.352407915129459</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.322851378827177</v>
+        <v>0.3212382997118671</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3830812732038278</v>
+        <v>0.3831761831227063</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>43296</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32009</v>
+        <v>31346</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>57778</v>
+        <v>56243</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08780907254055946</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0649173493769683</v>
+        <v>0.0635728742130092</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1171798256811054</v>
+        <v>0.1140655570923721</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -1265,19 +1265,19 @@
         <v>49133</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>36885</v>
+        <v>36901</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63142</v>
+        <v>63574</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09749689973757041</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07319110645322326</v>
+        <v>0.07322408143772956</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1252936757007679</v>
+        <v>0.1261525411874189</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>90</v>
@@ -1286,19 +1286,19 @@
         <v>92430</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>76086</v>
+        <v>76287</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>112350</v>
+        <v>111630</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09270581582726395</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07631355129434982</v>
+        <v>0.07651430514780985</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1126849266792581</v>
+        <v>0.1119633796505455</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>46713</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34691</v>
+        <v>35499</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60968</v>
+        <v>61942</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09473844752274449</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07035676744738548</v>
+        <v>0.07199524131369116</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1236475814178111</v>
+        <v>0.1256236401500582</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>38</v>
@@ -1336,19 +1336,19 @@
         <v>37397</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26971</v>
+        <v>27310</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>49950</v>
+        <v>50327</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07420711365356612</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05351979942132722</v>
+        <v>0.05419188740439123</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09911717114038085</v>
+        <v>0.09986524293387897</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>83</v>
@@ -1357,19 +1357,19 @@
         <v>84110</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>68323</v>
+        <v>67318</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>103833</v>
+        <v>102905</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08436081905699246</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06852730107763173</v>
+        <v>0.0675187497398268</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1041427515311939</v>
+        <v>0.1032126534891974</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>47185</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35114</v>
+        <v>33195</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63085</v>
+        <v>62482</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09569620456962274</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07121480566269026</v>
+        <v>0.067322306047675</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1279419823333875</v>
+        <v>0.1267188182685149</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1407,19 +1407,19 @@
         <v>28421</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20276</v>
+        <v>20055</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40200</v>
+        <v>39771</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05639633101733447</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04023457890943184</v>
+        <v>0.03979621528603099</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07977003675078391</v>
+        <v>0.07891772477963732</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -1428,19 +1428,19 @@
         <v>75606</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59157</v>
+        <v>59970</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91779</v>
+        <v>92781</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07583195760567216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05933362134522691</v>
+        <v>0.06014904588599243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0920530382148093</v>
+        <v>0.0930582682609208</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>238126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>213818</v>
+        <v>214978</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>261913</v>
+        <v>261527</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4829415777513981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4336412749671917</v>
+        <v>0.4359951355020137</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5311831473522606</v>
+        <v>0.5303993010878387</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>153</v>
@@ -1478,19 +1478,19 @@
         <v>155392</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>134141</v>
+        <v>134662</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>176165</v>
+        <v>175331</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3083495782360198</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.266180204420225</v>
+        <v>0.2672142413223288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3495692245556518</v>
+        <v>0.3479137504708953</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>382</v>
@@ -1499,19 +1499,19 @@
         <v>393519</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>362481</v>
+        <v>363786</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>426589</v>
+        <v>427510</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3946934923806125</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3635628078152459</v>
+        <v>0.3648721175544715</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4278627203561456</v>
+        <v>0.4287860611590847</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>15280</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8934</v>
+        <v>8878</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24297</v>
+        <v>23954</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04805772560327133</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02809918907948191</v>
+        <v>0.02792185803677622</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07641671892142156</v>
+        <v>0.07533874760316576</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -1624,19 +1624,19 @@
         <v>48058</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37078</v>
+        <v>36757</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64337</v>
+        <v>61163</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1432794327162714</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1105435346619206</v>
+        <v>0.1095881543152471</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1918157778893796</v>
+        <v>0.1823510545850232</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -1645,19 +1645,19 @@
         <v>63338</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50076</v>
+        <v>49986</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79054</v>
+        <v>81688</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09694059207970691</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07664290739741404</v>
+        <v>0.07650488221242811</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1209941847141381</v>
+        <v>0.1250261843472466</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>28361</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19561</v>
+        <v>19384</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40876</v>
+        <v>41013</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08919694336587505</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06152025063474384</v>
+        <v>0.06096527279230329</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.12855845325536</v>
+        <v>0.128990342050518</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -1695,19 +1695,19 @@
         <v>41024</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31230</v>
+        <v>29851</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54900</v>
+        <v>54317</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1223089704882036</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09310936893439788</v>
+        <v>0.08899860976860591</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1636807538649142</v>
+        <v>0.1619412670735729</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>69</v>
@@ -1716,19 +1716,19 @@
         <v>69385</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>54953</v>
+        <v>54646</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>88376</v>
+        <v>86441</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1061952817664257</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08410767053600769</v>
+        <v>0.08363697319727159</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1352621790956201</v>
+        <v>0.1323001680309973</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>87818</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>70670</v>
+        <v>71287</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>104706</v>
+        <v>104866</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.276194795024376</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2222646006088159</v>
+        <v>0.2242025192170909</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3293089415091852</v>
+        <v>0.3298117321935073</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>114</v>
@@ -1766,19 +1766,19 @@
         <v>113428</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>97003</v>
+        <v>96199</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>130303</v>
+        <v>130765</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3381761171936069</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2892067458572572</v>
+        <v>0.2868080788739382</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3884869000775276</v>
+        <v>0.3898649690392884</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>198</v>
@@ -1787,19 +1787,19 @@
         <v>201246</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>176834</v>
+        <v>178776</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>223305</v>
+        <v>228285</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3080134295300139</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2706493717415745</v>
+        <v>0.2736217113558572</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3417746711814086</v>
+        <v>0.3493974102100929</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>40355</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29126</v>
+        <v>29823</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51979</v>
+        <v>52268</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1269210178142914</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0916045325153102</v>
+        <v>0.09379734406600193</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1634784028935493</v>
+        <v>0.1643884448619001</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -1837,19 +1837,19 @@
         <v>20868</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13720</v>
+        <v>13624</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31345</v>
+        <v>30946</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06221646227806516</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0409048302201073</v>
+        <v>0.04061783697166481</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09345172886478632</v>
+        <v>0.09226413593781463</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>60</v>
@@ -1858,19 +1858,19 @@
         <v>61223</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48246</v>
+        <v>49370</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78490</v>
+        <v>80432</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09370438849109543</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07384232735367076</v>
+        <v>0.07556216687260851</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1201310920912689</v>
+        <v>0.1231033941394825</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>146142</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>127211</v>
+        <v>127356</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>164975</v>
+        <v>162614</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4596295181921861</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4000900242789602</v>
+        <v>0.400546440231671</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5188595405722205</v>
+        <v>0.5114354352681212</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>109</v>
@@ -1908,19 +1908,19 @@
         <v>112034</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>96195</v>
+        <v>95216</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>129875</v>
+        <v>131155</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3340190173238529</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2867979888689435</v>
+        <v>0.2838762936717196</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3872102709069205</v>
+        <v>0.391025084357675</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>255</v>
@@ -1929,19 +1929,19 @@
         <v>258176</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>233123</v>
+        <v>233376</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>280015</v>
+        <v>282482</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.395146308132758</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3568022442632951</v>
+        <v>0.3571891888598367</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4285717295034921</v>
+        <v>0.4323474778078839</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>21863</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14569</v>
+        <v>14649</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31293</v>
+        <v>32384</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06095565312751176</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04062025298275285</v>
+        <v>0.04084269770207424</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08724698331088396</v>
+        <v>0.0902880521925906</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -2054,19 +2054,19 @@
         <v>71046</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57238</v>
+        <v>57658</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86881</v>
+        <v>86453</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1917492432567311</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1544830866061185</v>
+        <v>0.1556150024882134</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2344867167153127</v>
+        <v>0.2333301633163154</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>95</v>
@@ -2075,19 +2075,19 @@
         <v>92909</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>75884</v>
+        <v>74690</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>110404</v>
+        <v>111011</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1274147820083777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1040670206060636</v>
+        <v>0.1024295893317258</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1514068472933887</v>
+        <v>0.1522385771939882</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>46506</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34292</v>
+        <v>35327</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>59369</v>
+        <v>61153</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1296628386991963</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09560803497148301</v>
+        <v>0.09849306110495799</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1655243558676401</v>
+        <v>0.1704997328433728</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>76</v>
@@ -2125,19 +2125,19 @@
         <v>73501</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>60067</v>
+        <v>59420</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>89988</v>
+        <v>90002</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1983738745260013</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.16211765711451</v>
+        <v>0.1603718234392851</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2428727962781002</v>
+        <v>0.2429102358346023</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>121</v>
@@ -2146,19 +2146,19 @@
         <v>120007</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>102885</v>
+        <v>101306</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>139989</v>
+        <v>141017</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1645764425007275</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1410952809834412</v>
+        <v>0.1389292171400459</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1919795912420605</v>
+        <v>0.1933893932336484</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>109155</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>92457</v>
+        <v>91993</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>126377</v>
+        <v>127181</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3043320454875796</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2577755293806208</v>
+        <v>0.2564834776036811</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3523486648376918</v>
+        <v>0.3545909481962415</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>115</v>
@@ -2196,19 +2196,19 @@
         <v>108590</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>91755</v>
+        <v>91105</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>124179</v>
+        <v>124730</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2930772447228596</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2476404533399356</v>
+        <v>0.2458872012707415</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3351520268445775</v>
+        <v>0.3366372961450851</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>226</v>
@@ -2217,19 +2217,19 @@
         <v>217745</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>195768</v>
+        <v>194746</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>243639</v>
+        <v>240490</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2986132311801505</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2684745464660339</v>
+        <v>0.2670727476829615</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3341230394783358</v>
+        <v>0.329805593344579</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>95653</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>80332</v>
+        <v>78083</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>112810</v>
+        <v>112366</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2666877344740466</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2239722580303395</v>
+        <v>0.2176999919133825</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3145234806704303</v>
+        <v>0.3132851990428232</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -2267,19 +2267,19 @@
         <v>56121</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44130</v>
+        <v>44124</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70782</v>
+        <v>69577</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1514668378234036</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1191028970140613</v>
+        <v>0.1190876254399713</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1910368185509523</v>
+        <v>0.1877834844969519</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>152</v>
@@ -2288,19 +2288,19 @@
         <v>151774</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>130901</v>
+        <v>132785</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>173846</v>
+        <v>175129</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2081414371156768</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1795160592435628</v>
+        <v>0.1820995964913395</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2384102669657383</v>
+        <v>0.2401704104404352</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>85493</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>70420</v>
+        <v>70663</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>102048</v>
+        <v>102010</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2383617282116658</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.196335282078618</v>
+        <v>0.197013979905019</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2845159499325289</v>
+        <v>0.2844107927337358</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>63</v>
@@ -2338,19 +2338,19 @@
         <v>61258</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>47824</v>
+        <v>47939</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>76908</v>
+        <v>76383</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1653327996710044</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1290748513271501</v>
+        <v>0.1293856430530569</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.207569003568482</v>
+        <v>0.2061538945528082</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>151</v>
@@ -2359,19 +2359,19 @@
         <v>146752</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>127629</v>
+        <v>126358</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>170417</v>
+        <v>168939</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2012541071950675</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1750282513206529</v>
+        <v>0.1732855928890251</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.233708505322631</v>
+        <v>0.2316815923930824</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>30629</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21653</v>
+        <v>21734</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42950</v>
+        <v>42036</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1506547642766372</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1065046665454587</v>
+        <v>0.1069012860904002</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2112546382597655</v>
+        <v>0.2067625915094547</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>68</v>
@@ -2484,19 +2484,19 @@
         <v>69173</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>56116</v>
+        <v>55312</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>83635</v>
+        <v>84110</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3330934702295367</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.270220012207067</v>
+        <v>0.2663469714689493</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4027326825602799</v>
+        <v>0.4050205959693241</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>99</v>
@@ -2505,19 +2505,19 @@
         <v>99802</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>82900</v>
+        <v>81795</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>117056</v>
+        <v>117155</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2428418431995492</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2017150628899843</v>
+        <v>0.1990273982634174</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2848235067973159</v>
+        <v>0.2850653509120975</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>15912</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9686</v>
+        <v>9863</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24614</v>
+        <v>25873</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07826334750420956</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04764075063478795</v>
+        <v>0.04851275343318456</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1210679413540801</v>
+        <v>0.12726019778987</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>60</v>
@@ -2555,19 +2555,19 @@
         <v>63234</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50925</v>
+        <v>50960</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>75860</v>
+        <v>77071</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3044964931040392</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2452244655108278</v>
+        <v>0.2453894069498048</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3652960299193405</v>
+        <v>0.371124164223131</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>76</v>
@@ -2576,19 +2576,19 @@
         <v>79146</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>64688</v>
+        <v>64545</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>98247</v>
+        <v>98641</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1925799490140586</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1573999119645211</v>
+        <v>0.1570527440035156</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2390570300067704</v>
+        <v>0.2400167489262538</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>52061</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38977</v>
+        <v>40805</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>65011</v>
+        <v>64552</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2560676875775569</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1917123369374181</v>
+        <v>0.2007031001737093</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3197657229097325</v>
+        <v>0.3175088353694268</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>31</v>
@@ -2626,19 +2626,19 @@
         <v>32642</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>23790</v>
+        <v>22759</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>43892</v>
+        <v>44446</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1571849190384668</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1145585931834033</v>
+        <v>0.1095920090487454</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2113548282633842</v>
+        <v>0.2140241332893002</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>84</v>
@@ -2647,19 +2647,19 @@
         <v>84703</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>68944</v>
+        <v>69747</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>101289</v>
+        <v>103506</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2061017905941472</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1677570219958877</v>
+        <v>0.1697104511475142</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2464592603382559</v>
+        <v>0.2518553159783753</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>28601</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19566</v>
+        <v>20400</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>39683</v>
+        <v>40170</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1406758289265053</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09623813772522628</v>
+        <v>0.1003425157035117</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1951857899443167</v>
+        <v>0.1975837877736238</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>8</v>
@@ -2697,19 +2697,19 @@
         <v>9407</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3860</v>
+        <v>4014</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17975</v>
+        <v>18349</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04529732412316127</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01858501742859096</v>
+        <v>0.01932724832654212</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0865547280282927</v>
+        <v>0.08835787328498888</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>37</v>
@@ -2718,19 +2718,19 @@
         <v>38007</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>27881</v>
+        <v>27424</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>51930</v>
+        <v>51509</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09248065179054581</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06784080025359236</v>
+        <v>0.06672997484675526</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1263587448513315</v>
+        <v>0.1253333884347157</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>76106</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>61945</v>
+        <v>62668</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>91919</v>
+        <v>89599</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3743383717150911</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.304685801270833</v>
+        <v>0.3082438912057123</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.452118445412949</v>
+        <v>0.4407054744836661</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>31</v>
@@ -2768,19 +2768,19 @@
         <v>33212</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>23968</v>
+        <v>23303</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>45256</v>
+        <v>44445</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.159927793504796</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1154170042175726</v>
+        <v>0.1122135903145904</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.217925794924298</v>
+        <v>0.2140208383344563</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>108</v>
@@ -2789,19 +2789,19 @@
         <v>109318</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>92714</v>
+        <v>92354</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>126954</v>
+        <v>128992</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2659957654016991</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2255950498956897</v>
+        <v>0.2247177399237336</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3089088843737892</v>
+        <v>0.313867494946615</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>6044</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2063</v>
+        <v>2090</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12742</v>
+        <v>12391</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0223181297358539</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007617673039269438</v>
+        <v>0.00771860517042428</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04704949071007265</v>
+        <v>0.04575608264036882</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>37</v>
@@ -2914,19 +2914,19 @@
         <v>38792</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>28007</v>
+        <v>27966</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>52770</v>
+        <v>50708</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1394671057973158</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1006912939683675</v>
+        <v>0.1005440940635562</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1897206648932711</v>
+        <v>0.1823080853837485</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>43</v>
@@ -2935,19 +2935,19 @@
         <v>44836</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>33138</v>
+        <v>32951</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>58307</v>
+        <v>58494</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0816750616526022</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06036511026016959</v>
+        <v>0.06002541588431338</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1062153510700253</v>
+        <v>0.1065555687833588</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>38745</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>28976</v>
+        <v>28143</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>52312</v>
+        <v>50981</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1430701290320975</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1069971677881281</v>
+        <v>0.103921913729422</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1931680033275115</v>
+        <v>0.188252397150959</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>45</v>
@@ -2985,19 +2985,19 @@
         <v>45240</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>34560</v>
+        <v>34196</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>58258</v>
+        <v>57906</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1626503458676518</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1242527640006724</v>
+        <v>0.1229438010642531</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2094526367681785</v>
+        <v>0.2081865657681114</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>83</v>
@@ -3006,19 +3006,19 @@
         <v>83985</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>70082</v>
+        <v>68785</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>103414</v>
+        <v>102374</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1529910147000474</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1276640734930052</v>
+        <v>0.1253010739922676</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1883841061618369</v>
+        <v>0.1864889391085982</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>81751</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>67302</v>
+        <v>68091</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>97094</v>
+        <v>97560</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3018762930071627</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2485193491251989</v>
+        <v>0.2514326581878681</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3585307123947747</v>
+        <v>0.3602519363950525</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>72</v>
@@ -3056,19 +3056,19 @@
         <v>74656</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>60969</v>
+        <v>59897</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>92007</v>
+        <v>89356</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2684085391051225</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2191981816863635</v>
+        <v>0.2153470291922658</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3307877944128018</v>
+        <v>0.3212588221011808</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>152</v>
@@ -3077,19 +3077,19 @@
         <v>156408</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>136337</v>
+        <v>135848</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>178244</v>
+        <v>177200</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2849188832494568</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2483569548255567</v>
+        <v>0.2474662989546532</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3246967608119032</v>
+        <v>0.3227958187401558</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>33798</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>24205</v>
+        <v>23851</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>46221</v>
+        <v>45850</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1248024764334323</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0893791054063285</v>
+        <v>0.08807385070939204</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1706766323235431</v>
+        <v>0.1693048912044436</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>31</v>
@@ -3127,19 +3127,19 @@
         <v>32326</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>22464</v>
+        <v>22952</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>43126</v>
+        <v>44099</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1162207871696831</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08076398938802973</v>
+        <v>0.08251771820697806</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1550486931952038</v>
+        <v>0.1585491630060279</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>64</v>
@@ -3148,19 +3148,19 @@
         <v>66124</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>52546</v>
+        <v>52218</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>81838</v>
+        <v>83333</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1204543142686021</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09571932067956647</v>
+        <v>0.09512335593074862</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1490794406845962</v>
+        <v>0.1518023679953482</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>110473</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>95881</v>
+        <v>95382</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>126766</v>
+        <v>127416</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4079329717914535</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3540523409413645</v>
+        <v>0.3522077047045353</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4680978522017539</v>
+        <v>0.4704960901267027</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>85</v>
@@ -3198,19 +3198,19 @@
         <v>87130</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>70582</v>
+        <v>73946</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>101160</v>
+        <v>103756</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3132532220602268</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2537617334121282</v>
+        <v>0.2658551839356955</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3636973993282426</v>
+        <v>0.3730305563587707</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>194</v>
@@ -3219,19 +3219,19 @@
         <v>197602</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>176704</v>
+        <v>175424</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>221259</v>
+        <v>221320</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3599607261292915</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3218919670369572</v>
+        <v>0.3195598083740864</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4030551668528397</v>
+        <v>0.4031660640852695</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>143710</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>122052</v>
+        <v>122614</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>166580</v>
+        <v>164680</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2336640679764861</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1984499231818727</v>
+        <v>0.1993637970774349</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2708495766434706</v>
+        <v>0.2677598993683686</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>187</v>
@@ -3344,19 +3344,19 @@
         <v>196863</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>174746</v>
+        <v>174644</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>221373</v>
+        <v>219568</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3084574116132024</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.273802774636649</v>
+        <v>0.2736425296300181</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3468609956236172</v>
+        <v>0.3440320343670964</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>323</v>
@@ -3365,19 +3365,19 @@
         <v>340573</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>307620</v>
+        <v>305952</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>374121</v>
+        <v>371770</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2717527865853197</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2454586565881069</v>
+        <v>0.2441277625818099</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2985214625910695</v>
+        <v>0.2966457407658868</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>73948</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>56450</v>
+        <v>58429</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>91004</v>
+        <v>92235</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1202360389727021</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.09178386203536154</v>
+        <v>0.0950016596209291</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1479667893303537</v>
+        <v>0.1499687005129719</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>84</v>
@@ -3415,19 +3415,19 @@
         <v>84524</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>68199</v>
+        <v>68397</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>103955</v>
+        <v>103285</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1324375597415995</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.106858392805283</v>
+        <v>0.1071682509058809</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1628822319979115</v>
+        <v>0.1618336213272554</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>155</v>
@@ -3436,19 +3436,19 @@
         <v>158473</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>136712</v>
+        <v>131795</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>184130</v>
+        <v>182880</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1264496974156739</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.109086084884265</v>
+        <v>0.1051628311657403</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1469222961225304</v>
+        <v>0.1459253245060549</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>170936</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>150544</v>
+        <v>148690</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>194489</v>
+        <v>194725</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2779320885025487</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2447761511167665</v>
+        <v>0.2417620741421518</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3162284760219037</v>
+        <v>0.316612584512495</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>162</v>
@@ -3486,19 +3486,19 @@
         <v>165508</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>144693</v>
+        <v>144422</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>188604</v>
+        <v>187914</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2593276672816854</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2267129788814174</v>
+        <v>0.2262898521525265</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2955163659472677</v>
+        <v>0.2944343590740687</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>329</v>
@@ -3507,19 +3507,19 @@
         <v>336444</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>307318</v>
+        <v>306081</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>369217</v>
+        <v>369556</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2684577351669959</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2452178939249512</v>
+        <v>0.2442309690483877</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2946085035449464</v>
+        <v>0.2948787334889054</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>54439</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>40801</v>
+        <v>41273</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>70387</v>
+        <v>69691</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.08851452310568954</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.06633961374662511</v>
+        <v>0.0671081192665256</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1144454069787963</v>
+        <v>0.1133132981385796</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>42</v>
@@ -3557,19 +3557,19 @@
         <v>41771</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>31053</v>
+        <v>30631</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>54991</v>
+        <v>55416</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.06544929773968651</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04865586335190882</v>
+        <v>0.04799495011864183</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0861624653683746</v>
+        <v>0.0868290726340855</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>95</v>
@@ -3578,19 +3578,19 @@
         <v>96210</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>77754</v>
+        <v>80533</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>115219</v>
+        <v>117027</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07676849283216465</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06204223818869635</v>
+        <v>0.06425988478163493</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0919361491309275</v>
+        <v>0.09337903118960603</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>171994</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>149754</v>
+        <v>152688</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>194399</v>
+        <v>196959</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2796532814425735</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2434912005999176</v>
+        <v>0.2482623977801085</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3160815748587674</v>
+        <v>0.3202444431802406</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>146</v>
@@ -3628,19 +3628,19 @@
         <v>149553</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>128103</v>
+        <v>128508</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>171460</v>
+        <v>170790</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2343280636238262</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2007202619068041</v>
+        <v>0.2013540918911838</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.268653466302248</v>
+        <v>0.2676039953208275</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>317</v>
@@ -3649,19 +3649,19 @@
         <v>321547</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>292532</v>
+        <v>288817</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>355673</v>
+        <v>356100</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2565712879998459</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2334195233257541</v>
+        <v>0.23045487355069</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2838014842927889</v>
+        <v>0.2841422646889076</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>96919</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>79491</v>
+        <v>80247</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>115985</v>
+        <v>116667</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1304825423659591</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1070181141269231</v>
+        <v>0.1080365154353748</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1561502562313863</v>
+        <v>0.1570690986312883</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>228</v>
@@ -3774,19 +3774,19 @@
         <v>239826</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>217574</v>
+        <v>214212</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>270789</v>
+        <v>268112</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3069482309013047</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2784690851626022</v>
+        <v>0.2741653209637741</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3465780588675162</v>
+        <v>0.3431518664259215</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>324</v>
@@ -3795,19 +3795,19 @@
         <v>336745</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>305077</v>
+        <v>304814</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>369649</v>
+        <v>373488</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.220946867718881</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2001690211358822</v>
+        <v>0.1999965157389568</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2425361967094534</v>
+        <v>0.2450546649856595</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>133512</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>114780</v>
+        <v>114433</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>155912</v>
+        <v>154911</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1797467107457147</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1545287408040693</v>
+        <v>0.1540611291837353</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2099046189610844</v>
+        <v>0.2085570046297233</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>231</v>
@@ -3845,19 +3845,19 @@
         <v>237863</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>210488</v>
+        <v>212758</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>264027</v>
+        <v>265979</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.304435814982936</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2693988608661011</v>
+        <v>0.2723053602415503</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.337923100466213</v>
+        <v>0.3404207599743913</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>365</v>
@@ -3866,19 +3866,19 @@
         <v>371374</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>339495</v>
+        <v>339484</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>406562</v>
+        <v>404616</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2436680077825665</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2227514082405852</v>
+        <v>0.2227442336382855</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2667559547595494</v>
+        <v>0.2654789401368742</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>145513</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>124001</v>
+        <v>123626</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>168221</v>
+        <v>166526</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1959040015315525</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1669430896136328</v>
+        <v>0.1664381295260108</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2264751690246378</v>
+        <v>0.2241935041665827</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>122</v>
@@ -3916,19 +3916,19 @@
         <v>129797</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>109783</v>
+        <v>109078</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>154780</v>
+        <v>152354</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1661247567741731</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1405096955952667</v>
+        <v>0.1396073187947481</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.198100288542286</v>
+        <v>0.1949946707095831</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>267</v>
@@ -3937,19 +3937,19 @@
         <v>275310</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>246353</v>
+        <v>248966</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>310208</v>
+        <v>306864</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1806378083760696</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1616387300406124</v>
+        <v>0.1633528891528427</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2035350584998779</v>
+        <v>0.2013414212498774</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>110195</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>93792</v>
+        <v>92274</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>131045</v>
+        <v>131536</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1483554467119053</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1262714806402516</v>
+        <v>0.1242278393553268</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1764253181030193</v>
+        <v>0.1770866900036025</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>46</v>
@@ -3987,19 +3987,19 @@
         <v>49703</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>37422</v>
+        <v>37153</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>66043</v>
+        <v>66951</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.06361336037825674</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.04789508809713156</v>
+        <v>0.04755125020840576</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.08452671141292706</v>
+        <v>0.08568951349149147</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>154</v>
@@ -4008,19 +4008,19 @@
         <v>159898</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>136798</v>
+        <v>137594</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>183829</v>
+        <v>185831</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1049128050697763</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.08975655637490988</v>
+        <v>0.09027893887127497</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1206148918055133</v>
+        <v>0.1219282059103315</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>256638</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>230725</v>
+        <v>231386</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>285411</v>
+        <v>284256</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3455112986448684</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3106242054723444</v>
+        <v>0.3115153964925588</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3842480661102454</v>
+        <v>0.3826939061946155</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>116</v>
@@ -4058,19 +4058,19 @@
         <v>124135</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>102869</v>
+        <v>102610</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>143963</v>
+        <v>144201</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1588778369633294</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1316601742834626</v>
+        <v>0.1313279136346698</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1842552894714657</v>
+        <v>0.1845594538095493</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>368</v>
@@ -4079,19 +4079,19 @@
         <v>380773</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>347264</v>
+        <v>349854</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>417154</v>
+        <v>416412</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2498345110527066</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2278484904712645</v>
+        <v>0.2295477911140395</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2737052563382623</v>
+        <v>0.2732182687721585</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>441252</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>402063</v>
+        <v>402969</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>482514</v>
+        <v>483019</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1347854298757404</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.122814537624017</v>
+        <v>0.1230914941697657</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1473892385312791</v>
+        <v>0.1475434802217786</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>904</v>
@@ -4204,19 +4204,19 @@
         <v>933376</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>880909</v>
+        <v>879813</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>986839</v>
+        <v>987025</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2765689859375337</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.2610224615783016</v>
+        <v>0.2606979348696017</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.292410665866998</v>
+        <v>0.2924660232790543</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1327</v>
@@ -4225,19 +4225,19 @@
         <v>1374628</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1306325</v>
+        <v>1308030</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1442926</v>
+        <v>1448759</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2067551954208427</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1964819053778004</v>
+        <v>0.1967383398652488</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2170277895763091</v>
+        <v>0.2179050327323319</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>428155</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>388365</v>
+        <v>392929</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>465421</v>
+        <v>473342</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1307846747666707</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1186305430351367</v>
+        <v>0.1200246417816211</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1421678774914401</v>
+        <v>0.1445875306285639</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>674</v>
@@ -4275,19 +4275,19 @@
         <v>687351</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>638155</v>
+        <v>642656</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>737060</v>
+        <v>732417</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2036693432261636</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1890919737492117</v>
+        <v>0.1904255900345286</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2183987452696293</v>
+        <v>0.2170228604967857</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1095</v>
@@ -4296,19 +4296,19 @@
         <v>1115506</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1047595</v>
+        <v>1053573</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1178243</v>
+        <v>1175058</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1677811547997719</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1575667278495327</v>
+        <v>0.1584658785339285</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1772172790329828</v>
+        <v>0.1767383026726114</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>764129</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>715858</v>
+        <v>714527</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>814644</v>
+        <v>808809</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2334116447628209</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2186666565416305</v>
+        <v>0.2182603419101291</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2488420177591909</v>
+        <v>0.2470596169708326</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>714</v>
@@ -4346,19 +4346,19 @@
         <v>726375</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>675924</v>
+        <v>680868</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>774383</v>
+        <v>776029</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2152325330505266</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2002832713690728</v>
+        <v>0.2017484883838951</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2294578568137084</v>
+        <v>0.2299456591309964</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1471</v>
@@ -4367,19 +4367,19 @@
         <v>1490504</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1421192</v>
+        <v>1423354</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1553858</v>
+        <v>1556709</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.224183872205178</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2137588507175562</v>
+        <v>0.2140839292018948</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2337127823763131</v>
+        <v>0.2341416651769977</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>477602</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>438872</v>
+        <v>436029</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>518640</v>
+        <v>523408</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1458889779268993</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1340582528161397</v>
+        <v>0.1331900325943065</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1584244939704954</v>
+        <v>0.1598809292820162</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>264</v>
@@ -4417,19 +4417,19 @@
         <v>271097</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>239293</v>
+        <v>241002</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>302661</v>
+        <v>304177</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.08032888400982449</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.0709049555837917</v>
+        <v>0.07141150488464701</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.08968167854655568</v>
+        <v>0.09013085409592826</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>728</v>
@@ -4438,19 +4438,19 @@
         <v>748700</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>701033</v>
+        <v>695322</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>805085</v>
+        <v>799209</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1126104742739766</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1054410017286983</v>
+        <v>0.1045821372951423</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.12109133560865</v>
+        <v>0.1202074876852713</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>1162601</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1104631</v>
+        <v>1105699</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1216065</v>
+        <v>1218859</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.3551292726678688</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3374217437492606</v>
+        <v>0.3377481501460398</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3714606004828344</v>
+        <v>0.3723139638136153</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>737</v>
@@ -4488,19 +4488,19 @@
         <v>756640</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>708823</v>
+        <v>712294</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>803272</v>
+        <v>807749</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2242002537759516</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2100317034201133</v>
+        <v>0.2110602321838844</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2380179994286388</v>
+        <v>0.2393446675083711</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1883</v>
@@ -4509,19 +4509,19 @@
         <v>1919240</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1848554</v>
+        <v>1841215</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1990609</v>
+        <v>1992695</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2886693033002309</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2780374811500056</v>
+        <v>0.2769336691266092</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2994037100927935</v>
+        <v>0.2997175016305417</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>33401</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23656</v>
+        <v>23008</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45164</v>
+        <v>46306</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1136522463352985</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08049456678624702</v>
+        <v>0.07828873578778973</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1536785658589784</v>
+        <v>0.1575636274726641</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -4878,19 +4878,19 @@
         <v>87774</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73110</v>
+        <v>71155</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107001</v>
+        <v>104247</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3067739960960459</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2555235561467529</v>
+        <v>0.2486876527018253</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3739721282186284</v>
+        <v>0.3643484089483278</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>108</v>
@@ -4899,19 +4899,19 @@
         <v>121175</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102833</v>
+        <v>103032</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142875</v>
+        <v>146427</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2089198081715934</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1772955779370921</v>
+        <v>0.1776380499363844</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2463320495338605</v>
+        <v>0.2524572856547058</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>27379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18419</v>
+        <v>18351</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39300</v>
+        <v>39633</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0931611477423518</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06267405754388289</v>
+        <v>0.06244268894270224</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1337249541446802</v>
+        <v>0.1348575086588594</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -4949,19 +4949,19 @@
         <v>41871</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30255</v>
+        <v>30713</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>56746</v>
+        <v>56195</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1463406465286316</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1057409281679423</v>
+        <v>0.1073420798568013</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1983278624740704</v>
+        <v>0.1964027329371902</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -4970,19 +4970,19 @@
         <v>69250</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54658</v>
+        <v>55229</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>86511</v>
+        <v>88712</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1193947604520623</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09423653551179857</v>
+        <v>0.0952209533804315</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.14915377783572</v>
+        <v>0.1529492696266616</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>34476</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24697</v>
+        <v>24787</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45982</v>
+        <v>47528</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1173108643193364</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08403521527406359</v>
+        <v>0.08434295180682293</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.156460646263484</v>
+        <v>0.1617221237522367</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -5020,19 +5020,19 @@
         <v>33461</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22879</v>
+        <v>22459</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45929</v>
+        <v>44382</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1169472591444059</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07996197847072097</v>
+        <v>0.07849544007085839</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1605231704265629</v>
+        <v>0.1551152035288614</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -5041,19 +5041,19 @@
         <v>67937</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>53680</v>
+        <v>54300</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>84882</v>
+        <v>86094</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1171314967518324</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09255029008252705</v>
+        <v>0.09361987086369188</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1463467598892868</v>
+        <v>0.1484355152657759</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>20848</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12867</v>
+        <v>12716</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31932</v>
+        <v>32242</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07093982793243986</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04378196863012499</v>
+        <v>0.04326771722548705</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1086530539070379</v>
+        <v>0.1097071140248303</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -5091,19 +5091,19 @@
         <v>12115</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6067</v>
+        <v>6049</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22692</v>
+        <v>22487</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04234230418129392</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02120488214588592</v>
+        <v>0.02114031848950116</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07930848674724843</v>
+        <v>0.07859227938216683</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -5112,19 +5112,19 @@
         <v>32963</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21845</v>
+        <v>22492</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45734</v>
+        <v>46939</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05683258022107434</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03766366884057289</v>
+        <v>0.03877839690273281</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07885037976981051</v>
+        <v>0.08092748170192084</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>177784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>160625</v>
+        <v>159133</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>194177</v>
+        <v>194597</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6049359136705735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5465503761702721</v>
+        <v>0.5414735276180306</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.660713854855559</v>
+        <v>0.6621444298564023</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>101</v>
@@ -5162,19 +5162,19 @@
         <v>110899</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>92997</v>
+        <v>95953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>128415</v>
+        <v>130390</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3875957940496227</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3250276023405524</v>
+        <v>0.3353591829643694</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4488162600502634</v>
+        <v>0.4557187086309682</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>267</v>
@@ -5183,19 +5183,19 @@
         <v>288683</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>260904</v>
+        <v>264215</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>312991</v>
+        <v>313920</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4977213544034375</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4498271895861137</v>
+        <v>0.455535866451383</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5396304463120096</v>
+        <v>0.5412321446432101</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>45212</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33428</v>
+        <v>33175</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59503</v>
+        <v>60315</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08943512837819224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06612575614830726</v>
+        <v>0.06562403779902701</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.117703922814234</v>
+        <v>0.1193108406910111</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>125</v>
@@ -5308,19 +5308,19 @@
         <v>138905</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118777</v>
+        <v>117824</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>160141</v>
+        <v>159833</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2657264503950438</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2272214781234315</v>
+        <v>0.2253980348881272</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3063500706746851</v>
+        <v>0.3057620040000105</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>169</v>
@@ -5329,19 +5329,19 @@
         <v>184117</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>159169</v>
+        <v>157268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>212626</v>
+        <v>212299</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1790560222359443</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1547942161785032</v>
+        <v>0.1529455271267901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2067811823298335</v>
+        <v>0.2064633882460704</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>44111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32360</v>
+        <v>32812</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>62847</v>
+        <v>61075</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08725684521827551</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06401273091711716</v>
+        <v>0.06490634450457024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1243200893481747</v>
+        <v>0.1208154384684462</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>65</v>
@@ -5379,19 +5379,19 @@
         <v>70046</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>55790</v>
+        <v>55931</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>88179</v>
+        <v>88098</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1339994964682454</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1067261854072144</v>
+        <v>0.1069971601873611</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1686867925283996</v>
+        <v>0.1685314475945907</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>105</v>
@@ -5400,19 +5400,19 @@
         <v>114157</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>92244</v>
+        <v>93504</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>136265</v>
+        <v>137781</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1110193205255004</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08970821147625492</v>
+        <v>0.0909336822832643</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1325191322563213</v>
+        <v>0.1339939671246115</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>112106</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>94699</v>
+        <v>92205</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>133613</v>
+        <v>131065</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2217606194533724</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1873276798216072</v>
+        <v>0.182393495186763</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2643050135747685</v>
+        <v>0.2592646380910571</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>102</v>
@@ -5450,19 +5450,19 @@
         <v>107020</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>88983</v>
+        <v>89873</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>127107</v>
+        <v>126364</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2047303704060755</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1702249255625658</v>
+        <v>0.1719278018885353</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.24315705190258</v>
+        <v>0.2417359574189334</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>207</v>
@@ -5471,19 +5471,19 @@
         <v>219126</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>193878</v>
+        <v>193614</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>247829</v>
+        <v>249144</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2131029831909761</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1885488238022231</v>
+        <v>0.1882925971603773</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.241017336037631</v>
+        <v>0.2422955091631138</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>22459</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14943</v>
+        <v>14621</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33802</v>
+        <v>33048</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04442721025314487</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02955904541193611</v>
+        <v>0.02892176074203657</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06686501041336949</v>
+        <v>0.06537285885298953</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -5521,19 +5521,19 @@
         <v>20258</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12124</v>
+        <v>12041</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29830</v>
+        <v>30598</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03875321398340254</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02319297215557844</v>
+        <v>0.02303412084889524</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05706465068854999</v>
+        <v>0.05853463886595837</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -5542,19 +5542,19 @@
         <v>42717</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30657</v>
+        <v>31179</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57006</v>
+        <v>57342</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04154273124633789</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02981396833408146</v>
+        <v>0.03032239123198652</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05543886139938015</v>
+        <v>0.0557655016184427</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>281639</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>258569</v>
+        <v>258735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>304644</v>
+        <v>305193</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.557120196697015</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5114838739624373</v>
+        <v>0.511811729788753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6026266564089088</v>
+        <v>0.6037116475492212</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>168</v>
@@ -5592,19 +5592,19 @@
         <v>186508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>164722</v>
+        <v>162547</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>210409</v>
+        <v>210166</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3567904687472327</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3151138961328574</v>
+        <v>0.310953059520341</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4025136512475398</v>
+        <v>0.4020487833227376</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>429</v>
@@ -5613,19 +5613,19 @@
         <v>468147</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>433530</v>
+        <v>434451</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>502140</v>
+        <v>502588</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4552789428012413</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4216137165780178</v>
+        <v>0.4225089052934934</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4883379722015469</v>
+        <v>0.4887736661133421</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>33769</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24714</v>
+        <v>23876</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45471</v>
+        <v>45048</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1045108556166344</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07648715622337819</v>
+        <v>0.07389550488258864</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1407299083090888</v>
+        <v>0.1394207018640818</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -5738,19 +5738,19 @@
         <v>76959</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61302</v>
+        <v>62745</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93955</v>
+        <v>92714</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.226364696592847</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1803111148867433</v>
+        <v>0.1845572819132253</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2763549887430055</v>
+        <v>0.2727044247355926</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>109</v>
@@ -5759,19 +5759,19 @@
         <v>110727</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90626</v>
+        <v>91737</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>129863</v>
+        <v>130353</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1669875443908254</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1366723897326193</v>
+        <v>0.1383488464567832</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1958461338147389</v>
+        <v>0.1965854851240383</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>15779</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8961</v>
+        <v>7985</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27496</v>
+        <v>26748</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0488338720901911</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02773223733315978</v>
+        <v>0.02471399220139038</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0850962275075175</v>
+        <v>0.08278125516949095</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -5809,19 +5809,19 @@
         <v>39951</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28846</v>
+        <v>27801</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52466</v>
+        <v>51612</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1175107534197582</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0848477656249786</v>
+        <v>0.08177341203589128</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1543221372831003</v>
+        <v>0.1518112567448035</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>52</v>
@@ -5830,19 +5830,19 @@
         <v>55730</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42667</v>
+        <v>42781</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>72325</v>
+        <v>72680</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08404576288029771</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06434561025071461</v>
+        <v>0.06451779285221833</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1090735210012327</v>
+        <v>0.1096086406361128</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>100660</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>83186</v>
+        <v>84902</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>119141</v>
+        <v>118684</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3115346316876226</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2574542051164327</v>
+        <v>0.2627643157170833</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3687295543263414</v>
+        <v>0.3673174699755651</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>96</v>
@@ -5880,19 +5880,19 @@
         <v>104449</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>88147</v>
+        <v>87654</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>123385</v>
+        <v>121260</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3072223225734454</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2592737618369987</v>
+        <v>0.2578215053858817</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3629209480429964</v>
+        <v>0.3566709968476028</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>197</v>
@@ -5901,19 +5901,19 @@
         <v>205109</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>182311</v>
+        <v>181426</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>231187</v>
+        <v>233071</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3093236320813226</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2749418778007267</v>
+        <v>0.2736070623853045</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3486524298388727</v>
+        <v>0.3514936476918788</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>78197</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63613</v>
+        <v>62533</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>94599</v>
+        <v>96524</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2420132692694948</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1968760305787572</v>
+        <v>0.193535498713435</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2927748732582509</v>
+        <v>0.2987344819273996</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -5951,19 +5951,19 @@
         <v>62010</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47939</v>
+        <v>48195</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76772</v>
+        <v>77001</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1823950642928567</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1410047987617356</v>
+        <v>0.14175815775258</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2258159762073626</v>
+        <v>0.2264867573145925</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>130</v>
@@ -5972,19 +5972,19 @@
         <v>140207</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>119996</v>
+        <v>120379</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>163346</v>
+        <v>163657</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2114459272164162</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1809649511535134</v>
+        <v>0.181543672236193</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2463421042383413</v>
+        <v>0.2468104991093141</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>94706</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>78869</v>
+        <v>80053</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>112295</v>
+        <v>112981</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.293107371336057</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2440925500912796</v>
+        <v>0.2477585064179507</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.347542230699051</v>
+        <v>0.3496661786082114</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -6022,19 +6022,19 @@
         <v>56609</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43365</v>
+        <v>43043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74025</v>
+        <v>72072</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1665071631210926</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1275518664144846</v>
+        <v>0.1266065275419439</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.217734373732568</v>
+        <v>0.2119896003709784</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>146</v>
@@ -6043,19 +6043,19 @@
         <v>151315</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>131688</v>
+        <v>130386</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>175335</v>
+        <v>174173</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2281971334311381</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1985986537691601</v>
+        <v>0.1966343982863681</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2644225430117884</v>
+        <v>0.2626692802810771</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>53182</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40364</v>
+        <v>40721</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67551</v>
+        <v>69106</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1425718268514624</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1082086760432435</v>
+        <v>0.1091655778389143</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1810924947863675</v>
+        <v>0.1852632089600967</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>116</v>
@@ -6168,19 +6168,19 @@
         <v>119717</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102541</v>
+        <v>102842</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>138917</v>
+        <v>140377</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3077936829435765</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2636360187126492</v>
+        <v>0.2644074329600977</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3571584601801647</v>
+        <v>0.3609105812353405</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>166</v>
@@ -6189,19 +6189,19 @@
         <v>172898</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>150859</v>
+        <v>149919</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>196453</v>
+        <v>199435</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2269103113573951</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1979853734028127</v>
+        <v>0.1967526599275763</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.257823331030555</v>
+        <v>0.2617365223380035</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>41068</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>30471</v>
+        <v>30396</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>55173</v>
+        <v>54897</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1100961304515236</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08168897982841156</v>
+        <v>0.08148737816332623</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1479092022567722</v>
+        <v>0.1471709111828333</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>68</v>
@@ -6239,19 +6239,19 @@
         <v>73114</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>58285</v>
+        <v>58880</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>88828</v>
+        <v>89360</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1879780527804107</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1498529925751858</v>
+        <v>0.1513803055032154</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2283788333294816</v>
+        <v>0.2297459093882725</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>108</v>
@@ -6260,19 +6260,19 @@
         <v>114182</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>94726</v>
+        <v>94462</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>135553</v>
+        <v>134932</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1498514234556469</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1243170669737266</v>
+        <v>0.1239716352577033</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1778988346545557</v>
+        <v>0.1770839368889277</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>44756</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32118</v>
+        <v>32213</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>60141</v>
+        <v>60120</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1199839477754169</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0861039948026059</v>
+        <v>0.08635778004806255</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1612272529430181</v>
+        <v>0.1611730013161744</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -6310,19 +6310,19 @@
         <v>33318</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23306</v>
+        <v>22786</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45331</v>
+        <v>45295</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08566006945604412</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05992079585760966</v>
+        <v>0.05858222891217892</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1165460925884946</v>
+        <v>0.1164548617933061</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>71</v>
@@ -6331,19 +6331,19 @@
         <v>78074</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>62279</v>
+        <v>61217</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>97706</v>
+        <v>96371</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1024631188228114</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08173448238937184</v>
+        <v>0.08034062913407576</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1282288849413717</v>
+        <v>0.1264760451321073</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>14605</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8194</v>
+        <v>8317</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23155</v>
+        <v>24764</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03915379874175675</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02196571681362561</v>
+        <v>0.02229524348122385</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.062074288185139</v>
+        <v>0.06638798100993654</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -6381,19 +6381,19 @@
         <v>14747</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8844</v>
+        <v>8346</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24708</v>
+        <v>25128</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03791515756930054</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02273813067406855</v>
+        <v>0.02145742237348992</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06352348198564761</v>
+        <v>0.06460395505758623</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -6402,19 +6402,19 @@
         <v>29352</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19695</v>
+        <v>19436</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41446</v>
+        <v>40825</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03852152694792478</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02584766280368172</v>
+        <v>0.02550706938283408</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05439366875691828</v>
+        <v>0.05357864417359445</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>219406</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>199539</v>
+        <v>198161</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>238273</v>
+        <v>237963</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5881942961798403</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5349319562122377</v>
+        <v>0.5312374023669636</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6387725352033253</v>
+        <v>0.6379409229442348</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>141</v>
@@ -6452,19 +6452,19 @@
         <v>148055</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>129529</v>
+        <v>129133</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>166456</v>
+        <v>167326</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3806530372506681</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3330211819688106</v>
+        <v>0.332003915282511</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4279613311434531</v>
+        <v>0.4301981978426491</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>341</v>
@@ -6473,19 +6473,19 @@
         <v>367462</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>340392</v>
+        <v>339685</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>396617</v>
+        <v>395911</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4822536194162219</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4467277393351987</v>
+        <v>0.4457992171471418</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5205164446350324</v>
+        <v>0.5195900507170421</v>
       </c>
     </row>
     <row r="27">
@@ -6577,19 +6577,19 @@
         <v>7249</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3059</v>
+        <v>3118</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14672</v>
+        <v>14619</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03409432705412101</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01438871203988096</v>
+        <v>0.01466703931286465</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06900759283486062</v>
+        <v>0.06875842330796916</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>40</v>
@@ -6598,19 +6598,19 @@
         <v>41653</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>30859</v>
+        <v>30654</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>56058</v>
+        <v>55274</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1896831077761967</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1405289024115467</v>
+        <v>0.1395962902247941</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2552836861458426</v>
+        <v>0.2517138384953399</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>47</v>
@@ -6619,19 +6619,19 @@
         <v>48902</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>38387</v>
+        <v>36182</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>63833</v>
+        <v>62408</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1131437981102549</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.088815544259498</v>
+        <v>0.08371427376561093</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1476907371538845</v>
+        <v>0.144391996989978</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>39649</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>29484</v>
+        <v>29166</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52282</v>
+        <v>53238</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1864792108258697</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1386704294993206</v>
+        <v>0.1371733809849654</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2458981303425093</v>
+        <v>0.2503935173743979</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>56</v>
@@ -6669,19 +6669,19 @@
         <v>58411</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>46753</v>
+        <v>46823</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>73014</v>
+        <v>73698</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2659994480377946</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2129093673877908</v>
+        <v>0.2132304129589925</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3324983685430138</v>
+        <v>0.3356156331088512</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>93</v>
@@ -6690,19 +6690,19 @@
         <v>98060</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>80512</v>
+        <v>80622</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>115877</v>
+        <v>118984</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.22688079158695</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1862810162508896</v>
+        <v>0.1865338074090838</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2681034051560203</v>
+        <v>0.275291902965648</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>34294</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>23718</v>
+        <v>23693</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>45876</v>
+        <v>46139</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1612949852353901</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1115502600744608</v>
+        <v>0.111433894122558</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2157691681122627</v>
+        <v>0.2170036514877317</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>40</v>
@@ -6740,19 +6740,19 @@
         <v>40971</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>31061</v>
+        <v>30076</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>53045</v>
+        <v>53299</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1865781198997918</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1414482573918024</v>
+        <v>0.1369632558220927</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2415641105561546</v>
+        <v>0.2427215792398796</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>72</v>
@@ -6761,19 +6761,19 @@
         <v>75265</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>61450</v>
+        <v>60649</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>93957</v>
+        <v>92981</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1741405028401076</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1421767776912098</v>
+        <v>0.1403221688474477</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2173887721690396</v>
+        <v>0.2151295544341785</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>32464</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22900</v>
+        <v>22476</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43416</v>
+        <v>43912</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1526867878189846</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1077046250445859</v>
+        <v>0.105713034500532</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2041952232674228</v>
+        <v>0.2065289253509311</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -6811,19 +6811,19 @@
         <v>15052</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9091</v>
+        <v>8799</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>24688</v>
+        <v>24490</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06854555043739384</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04139855127506496</v>
+        <v>0.04006992649898737</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1124289723478855</v>
+        <v>0.1115245614313738</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>45</v>
@@ -6832,19 +6832,19 @@
         <v>47516</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>35315</v>
+        <v>35892</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>62639</v>
+        <v>62532</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1099374309684772</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08170790853289295</v>
+        <v>0.08304412137792805</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1449279367329074</v>
+        <v>0.1446800804682232</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>98962</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>83894</v>
+        <v>84661</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>114010</v>
+        <v>114626</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4654446890656346</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.394575792367315</v>
+        <v>0.3981842585723582</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5362197569559592</v>
+        <v>0.5391180784837388</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>61</v>
@@ -6882,19 +6882,19 @@
         <v>63504</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>50107</v>
+        <v>51657</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>77808</v>
+        <v>78244</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2891937738488232</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2281826575072596</v>
+        <v>0.2352404868384807</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3543306608768805</v>
+        <v>0.3563148347141859</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>151</v>
@@ -6903,19 +6903,19 @@
         <v>162466</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>141722</v>
+        <v>142645</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>181471</v>
+        <v>184717</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3758974764942102</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3279010933924192</v>
+        <v>0.3300369981344952</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4198692935687507</v>
+        <v>0.427378148030213</v>
       </c>
     </row>
     <row r="33">
@@ -7007,19 +7007,19 @@
         <v>36170</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>25805</v>
+        <v>25655</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>48684</v>
+        <v>48875</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1320159400705675</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09418464611036562</v>
+        <v>0.09363831641112991</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1776897794130996</v>
+        <v>0.178388005247506</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>51</v>
@@ -7028,19 +7028,19 @@
         <v>55051</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>43376</v>
+        <v>43146</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>70213</v>
+        <v>68924</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1965889439762191</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1548960910623817</v>
+        <v>0.1540756991853989</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2507334419990395</v>
+        <v>0.2461315562966331</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>86</v>
@@ -7049,19 +7049,19 @@
         <v>91221</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>75293</v>
+        <v>74127</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>108631</v>
+        <v>108687</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1646550213163074</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1359044484288057</v>
+        <v>0.1338006014243366</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1960810974340761</v>
+        <v>0.196181171253323</v>
       </c>
     </row>
     <row r="35">
@@ -7078,19 +7078,19 @@
         <v>18866</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>11758</v>
+        <v>10798</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>30182</v>
+        <v>29033</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06885900206690615</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04291370838226619</v>
+        <v>0.03941236157165931</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1101622521227965</v>
+        <v>0.1059660558522555</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>31</v>
@@ -7099,19 +7099,19 @@
         <v>32050</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>22619</v>
+        <v>22765</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>43431</v>
+        <v>43786</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1144524773871163</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08077294888097263</v>
+        <v>0.08129598065797605</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1550929751523422</v>
+        <v>0.1563618183906965</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>48</v>
@@ -7120,19 +7120,19 @@
         <v>50916</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>38625</v>
+        <v>37308</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>67877</v>
+        <v>68314</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09190468765133863</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06971905820824663</v>
+        <v>0.06734211487329504</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1225186279786214</v>
+        <v>0.1233082543857572</v>
       </c>
     </row>
     <row r="36">
@@ -7149,19 +7149,19 @@
         <v>68383</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>54974</v>
+        <v>54092</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>85807</v>
+        <v>85241</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2495909981803145</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2006500242577505</v>
+        <v>0.1974314415205205</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3131869062327155</v>
+        <v>0.311120222216369</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>91</v>
@@ -7170,19 +7170,19 @@
         <v>92622</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>77297</v>
+        <v>76896</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>109290</v>
+        <v>108813</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3307563539765937</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2760313153094706</v>
+        <v>0.274598757068005</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.390276951697078</v>
+        <v>0.3885756324649781</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>155</v>
@@ -7191,19 +7191,19 @@
         <v>161005</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>140729</v>
+        <v>139639</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>186564</v>
+        <v>181649</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2906168523599477</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2540184169615753</v>
+        <v>0.2520509516226299</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3367515874316476</v>
+        <v>0.3278795396957855</v>
       </c>
     </row>
     <row r="37">
@@ -7220,19 +7220,19 @@
         <v>70339</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>57208</v>
+        <v>56438</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>84570</v>
+        <v>85734</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2567283305823784</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.208804461478297</v>
+        <v>0.2059917816127062</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3086723539726657</v>
+        <v>0.3129202436214333</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>43</v>
@@ -7241,19 +7241,19 @@
         <v>44341</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>33538</v>
+        <v>32339</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>58183</v>
+        <v>57254</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1583444712649557</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.119766089739586</v>
+        <v>0.115484775070526</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2077720651012945</v>
+        <v>0.2044552284551862</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>110</v>
@@ -7262,19 +7262,19 @@
         <v>114680</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>97121</v>
+        <v>96721</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>134557</v>
+        <v>134086</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2069992087620172</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.175305437780712</v>
+        <v>0.1745822854216174</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2428782121919052</v>
+        <v>0.2420273866077947</v>
       </c>
     </row>
     <row r="38">
@@ -7291,19 +7291,19 @@
         <v>80223</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>65172</v>
+        <v>63647</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>95805</v>
+        <v>96340</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2928057290998335</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2378693537082831</v>
+        <v>0.2323041808640957</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3496765763575778</v>
+        <v>0.3516305383787757</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>53</v>
@@ -7312,19 +7312,19 @@
         <v>55966</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>44135</v>
+        <v>43228</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>70972</v>
+        <v>69360</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1998577533951152</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1576079308160451</v>
+        <v>0.1543679629632551</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2534443506885228</v>
+        <v>0.2476858105775669</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>131</v>
@@ -7333,19 +7333,19 @@
         <v>136190</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>116109</v>
+        <v>117235</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>155499</v>
+        <v>156542</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2458242299103891</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2095782812894093</v>
+        <v>0.2116102014185007</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2806779374755216</v>
+        <v>0.2825604853182241</v>
       </c>
     </row>
     <row r="39">
@@ -7437,19 +7437,19 @@
         <v>75091</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>59733</v>
+        <v>59498</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>94858</v>
+        <v>93295</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1134626265908326</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.09025550086568714</v>
+        <v>0.08990091401249638</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1433298661896183</v>
+        <v>0.1409685334326728</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>145</v>
@@ -7458,19 +7458,19 @@
         <v>158496</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>133896</v>
+        <v>136412</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>179943</v>
+        <v>182547</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2290991854376329</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1935413997134436</v>
+        <v>0.1971784786981206</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.260100057672734</v>
+        <v>0.2638638694274984</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>213</v>
@@ -7479,19 +7479,19 @@
         <v>233587</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>206669</v>
+        <v>204219</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>267272</v>
+        <v>263977</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.172562442333222</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1526765355149876</v>
+        <v>0.1508664079405483</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1974470552781918</v>
+        <v>0.1950128357610242</v>
       </c>
     </row>
     <row r="41">
@@ -7508,19 +7508,19 @@
         <v>55971</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>41898</v>
+        <v>41623</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>74461</v>
+        <v>73092</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.08457105575289044</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.06330823770022483</v>
+        <v>0.06289265092034342</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1125093819236964</v>
+        <v>0.1104419112723589</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>84</v>
@@ -7529,19 +7529,19 @@
         <v>87770</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>71721</v>
+        <v>70667</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>106274</v>
+        <v>107687</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1268686139496775</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1036697242887586</v>
+        <v>0.1021459646842345</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1536147449976879</v>
+        <v>0.1556567852844004</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>134</v>
@@ -7550,19 +7550,19 @@
         <v>143741</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>119960</v>
+        <v>120588</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>167770</v>
+        <v>169641</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1061885954022232</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08862072455161069</v>
+        <v>0.0890840638331013</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1239398801365999</v>
+        <v>0.1253226125353114</v>
       </c>
     </row>
     <row r="42">
@@ -7579,19 +7579,19 @@
         <v>202085</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>177040</v>
+        <v>179131</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>226441</v>
+        <v>226517</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3053483275632275</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2675056949323001</v>
+        <v>0.2706653591094583</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3421510570835072</v>
+        <v>0.3422651696425184</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>207</v>
@@ -7600,19 +7600,19 @@
         <v>226012</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>202337</v>
+        <v>200017</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>252428</v>
+        <v>251211</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.326691710283815</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2924702445987265</v>
+        <v>0.2891164528157846</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3648747310231485</v>
+        <v>0.3631155597689554</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>397</v>
@@ -7621,19 +7621,19 @@
         <v>428097</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>393900</v>
+        <v>389693</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>465929</v>
+        <v>462540</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3162565558837983</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2909934976733873</v>
+        <v>0.2878858438203464</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3442047452564201</v>
+        <v>0.3417014656368744</v>
       </c>
     </row>
     <row r="43">
@@ -7650,19 +7650,19 @@
         <v>133107</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>112342</v>
+        <v>112875</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>155749</v>
+        <v>155835</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2011231880294949</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1697476018879363</v>
+        <v>0.1705532772444604</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2353347390725124</v>
+        <v>0.235465968103898</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>75</v>
@@ -7671,19 +7671,19 @@
         <v>81410</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>65368</v>
+        <v>65084</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>98270</v>
+        <v>100642</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1176746008853224</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.09448694464754646</v>
+        <v>0.09407609143953401</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1420450051959442</v>
+        <v>0.1454738738414557</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>200</v>
@@ -7692,19 +7692,19 @@
         <v>214517</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>187184</v>
+        <v>187557</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>244710</v>
+        <v>243691</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1584740797079895</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1382819981955428</v>
+        <v>0.1385575533306825</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.180779507198206</v>
+        <v>0.1800269490272245</v>
       </c>
     </row>
     <row r="44">
@@ -7721,19 +7721,19 @@
         <v>195563</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>171580</v>
+        <v>172006</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>222580</v>
+        <v>220727</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2954948020635546</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2592553306859366</v>
+        <v>0.2599001892110226</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3363172625593067</v>
+        <v>0.3335162566070539</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>123</v>
@@ -7742,19 +7742,19 @@
         <v>138133</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>115756</v>
+        <v>117023</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>159531</v>
+        <v>159460</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1996658894435523</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1673213098176893</v>
+        <v>0.169152013869614</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2305961571958255</v>
+        <v>0.2304927665023624</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>307</v>
@@ -7763,19 +7763,19 @@
         <v>333697</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>303957</v>
+        <v>300464</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>366612</v>
+        <v>367643</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.246518326672767</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2245485131490354</v>
+        <v>0.221968118827859</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2708342588914048</v>
+        <v>0.2715963112182616</v>
       </c>
     </row>
     <row r="45">
@@ -7867,19 +7867,19 @@
         <v>81958</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>66086</v>
+        <v>64894</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>102642</v>
+        <v>100446</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1053354456962409</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.08493582965717159</v>
+        <v>0.08340445890238947</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1319185957188175</v>
+        <v>0.129095909484625</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>104</v>
@@ -7888,19 +7888,19 @@
         <v>116923</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>98378</v>
+        <v>98374</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>139865</v>
+        <v>142758</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1426669506186355</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1200397524998102</v>
+        <v>0.1200346665731617</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1706608877718109</v>
+        <v>0.1741910911384277</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>177</v>
@@ -7909,19 +7909,19 @@
         <v>198881</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>174102</v>
+        <v>173444</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>228259</v>
+        <v>228930</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1244858365769261</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1089760278923558</v>
+        <v>0.1085642718465962</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1428745528983885</v>
+        <v>0.1432943462319761</v>
       </c>
     </row>
     <row r="47">
@@ -7938,19 +7938,19 @@
         <v>137206</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>116457</v>
+        <v>116364</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>159298</v>
+        <v>161459</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1763415694168985</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1496740059959399</v>
+        <v>0.1495550783765559</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2047345306271553</v>
+        <v>0.207512694827563</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>192</v>
@@ -7959,19 +7959,19 @@
         <v>212221</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>186702</v>
+        <v>188442</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>238054</v>
+        <v>238676</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2589480983211275</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2278101352954089</v>
+        <v>0.22993341330711</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2904692322978395</v>
+        <v>0.2912280829009984</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>321</v>
@@ -7980,19 +7980,19 @@
         <v>349427</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>316770</v>
+        <v>315706</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>386534</v>
+        <v>386922</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2187172336474507</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1982761322662876</v>
+        <v>0.1976105756049985</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2419439979761374</v>
+        <v>0.2421868574992287</v>
       </c>
     </row>
     <row r="48">
@@ -8009,19 +8009,19 @@
         <v>172998</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>148361</v>
+        <v>147541</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>197490</v>
+        <v>195451</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.222342259954744</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1906789375621779</v>
+        <v>0.189624844584247</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2538206298194655</v>
+        <v>0.2512005332151274</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>193</v>
@@ -8030,19 +8030,19 @@
         <v>205838</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>180233</v>
+        <v>179566</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>231739</v>
+        <v>231362</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2511595711849292</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2199176389345073</v>
+        <v>0.2191037139824286</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2827641547210414</v>
+        <v>0.2823034886167267</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>355</v>
@@ -8051,19 +8051,19 @@
         <v>378835</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>343679</v>
+        <v>344448</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>412208</v>
+        <v>415053</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2371250225392052</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.21511987574742</v>
+        <v>0.2156010143937522</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2580144092635455</v>
+        <v>0.2597946737970996</v>
       </c>
     </row>
     <row r="49">
@@ -8080,19 +8080,19 @@
         <v>69159</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>53088</v>
+        <v>55091</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>87174</v>
+        <v>89344</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.08888572198788598</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.06823027334441711</v>
+        <v>0.07080425815345151</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.112038912856535</v>
+        <v>0.1148284506979612</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>54</v>
@@ -8101,19 +8101,19 @@
         <v>60977</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>46457</v>
+        <v>48416</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>78199</v>
+        <v>78901</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.07440362213331916</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.05668571949237013</v>
+        <v>0.05907640131863957</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.09541711701343276</v>
+        <v>0.09627336984896639</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>118</v>
@@ -8122,19 +8122,19 @@
         <v>130137</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>109466</v>
+        <v>108519</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>155800</v>
+        <v>156198</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.08145666512118312</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.06851820820126932</v>
+        <v>0.06792548147208571</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.09752049498891256</v>
+        <v>0.09776925378373764</v>
       </c>
     </row>
     <row r="50">
@@ -8151,19 +8151,19 @@
         <v>316748</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>286680</v>
+        <v>284220</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>344356</v>
+        <v>345116</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4070950029442305</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3684509000267104</v>
+        <v>0.3652885809357906</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4425782362886231</v>
+        <v>0.4435542331890893</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>211</v>
@@ -8172,19 +8172,19 @@
         <v>223591</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>199998</v>
+        <v>198658</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>250145</v>
+        <v>251758</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2728217577419886</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2440347032067076</v>
+        <v>0.242399640464325</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.305222551484723</v>
+        <v>0.3071903515541587</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>499</v>
@@ -8193,19 +8193,19 @@
         <v>540339</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>500422</v>
+        <v>504846</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>579650</v>
+        <v>582500</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3382152421152349</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3132299554562719</v>
+        <v>0.3159993016162841</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3628216315848522</v>
+        <v>0.364605014220833</v>
       </c>
     </row>
     <row r="51">
@@ -8297,19 +8297,19 @@
         <v>366032</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>331045</v>
+        <v>330330</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>404641</v>
+        <v>403841</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1069634392587665</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.09673935023931789</v>
+        <v>0.0965304974924357</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1182458644694698</v>
+        <v>0.1180120396215132</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>730</v>
@@ -8318,19 +8318,19 @@
         <v>795477</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>740979</v>
+        <v>742347</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>847084</v>
+        <v>848090</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2241551155009284</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.2087984381719067</v>
+        <v>0.2091839829254024</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2386975030524528</v>
+        <v>0.2389808004189922</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1075</v>
@@ -8339,19 +8339,19 @@
         <v>1161509</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1095867</v>
+        <v>1100512</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1226153</v>
+        <v>1227779</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1666247121567363</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1572081302276409</v>
+        <v>0.1578743779437875</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1758982418931578</v>
+        <v>0.176131624250541</v>
       </c>
     </row>
     <row r="53">
@@ -8368,19 +8368,19 @@
         <v>380028</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>341445</v>
+        <v>345948</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>417261</v>
+        <v>415628</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.111053286657116</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.0997784249955268</v>
+        <v>0.1010945077404011</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1219338457210753</v>
+        <v>0.1214566097655259</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>573</v>
@@ -8389,19 +8389,19 @@
         <v>615435</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>570467</v>
+        <v>570161</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>659944</v>
+        <v>669557</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1734217364760733</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1607502554516202</v>
+        <v>0.1606640608756418</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1859636482097267</v>
+        <v>0.1886726746564679</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>925</v>
@@ -8410,19 +8410,19 @@
         <v>995463</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>935093</v>
+        <v>937020</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1061267</v>
+        <v>1055740</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1428045272246048</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1341442335635719</v>
+        <v>0.1344205398846972</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1522445617316786</v>
+        <v>0.151451709173389</v>
       </c>
     </row>
     <row r="54">
@@ -8439,19 +8439,19 @@
         <v>769759</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>723837</v>
+        <v>723149</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>819829</v>
+        <v>822823</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2249421349784166</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2115226176292606</v>
+        <v>0.2113216496582097</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2395738421437818</v>
+        <v>0.2404489961263938</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>792</v>
@@ -8460,19 +8460,19 @@
         <v>843690</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>794993</v>
+        <v>792036</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>895902</v>
+        <v>899102</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2377410221746418</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2240188762569378</v>
+        <v>0.2231857590075615</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.25245380102452</v>
+        <v>0.253355554265549</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1521</v>
@@ -8481,19 +8481,19 @@
         <v>1613448</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1545967</v>
+        <v>1541259</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1696020</v>
+        <v>1690744</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2314579382017312</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2217774315056647</v>
+        <v>0.2211019686006598</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2433032571486944</v>
+        <v>0.2425464633870433</v>
       </c>
     </row>
     <row r="55">
@@ -8510,19 +8510,19 @@
         <v>441178</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>404014</v>
+        <v>401887</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>483990</v>
+        <v>485335</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1289230569422713</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1180626076852141</v>
+        <v>0.1174410926674065</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1414334968675062</v>
+        <v>0.1418266387165091</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>286</v>
@@ -8531,19 +8531,19 @@
         <v>310911</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>280443</v>
+        <v>279997</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>346355</v>
+        <v>349185</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.08761062134728628</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.07902526045868757</v>
+        <v>0.07889943565734035</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.09759837659257814</v>
+        <v>0.09839588217009572</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>702</v>
@@ -8552,19 +8552,19 @@
         <v>752089</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>703403</v>
+        <v>700818</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>805981</v>
+        <v>807387</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1078912518418894</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1009070542500573</v>
+        <v>0.1005361453605856</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.115622345852602</v>
+        <v>0.1158241136867936</v>
       </c>
     </row>
     <row r="56">
@@ -8581,19 +8581,19 @@
         <v>1465032</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1405132</v>
+        <v>1400840</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1527619</v>
+        <v>1521171</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.4281180821634296</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4106136903532633</v>
+        <v>0.4093595943627031</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4464073429255962</v>
+        <v>0.4445229870550882</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>909</v>
@@ -8602,19 +8602,19 @@
         <v>983265</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>928195</v>
+        <v>930035</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1038736</v>
+        <v>1038636</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2770715045010703</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2615534632060987</v>
+        <v>0.2620719891936847</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2927024684988713</v>
+        <v>0.2926742787115554</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2271</v>
@@ -8623,19 +8623,19 @@
         <v>2448297</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2356006</v>
+        <v>2362940</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2532570</v>
+        <v>2533843</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3512215705750383</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3379818640784998</v>
+        <v>0.3389765221952737</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3633109203976116</v>
+        <v>0.3634935084380584</v>
       </c>
     </row>
     <row r="57">
@@ -8971,19 +8971,19 @@
         <v>59734</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45905</v>
+        <v>45456</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76438</v>
+        <v>74380</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2040774872532505</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1568330893328294</v>
+        <v>0.1552978026446767</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2611467736621698</v>
+        <v>0.2541163220237773</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>114</v>
@@ -8992,19 +8992,19 @@
         <v>122059</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>103414</v>
+        <v>106236</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>138845</v>
+        <v>140400</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4242924306964704</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3594804963404715</v>
+        <v>0.3692895192474314</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4826433607362144</v>
+        <v>0.4880498463173829</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>169</v>
@@ -9013,19 +9013,19 @@
         <v>181793</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>159819</v>
+        <v>158843</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>206691</v>
+        <v>204934</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.313231651324715</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2753705030263549</v>
+        <v>0.2736892345418757</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3561318282353555</v>
+        <v>0.3531036909841034</v>
       </c>
     </row>
     <row r="5">
@@ -9042,19 +9042,19 @@
         <v>23843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15942</v>
+        <v>14658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34897</v>
+        <v>33692</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.081458686941805</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05446453461734427</v>
+        <v>0.05007982629210485</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1192227371192757</v>
+        <v>0.1151074210244265</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -9063,19 +9063,19 @@
         <v>37447</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26324</v>
+        <v>26567</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50217</v>
+        <v>49786</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.130170779852938</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0915064447869957</v>
+        <v>0.0923490379643741</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1745594429727724</v>
+        <v>0.173062272901197</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>60</v>
@@ -9084,19 +9084,19 @@
         <v>61290</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>47528</v>
+        <v>47210</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>78639</v>
+        <v>77928</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1056038593753788</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08189163019654171</v>
+        <v>0.08134304660572138</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1354955487548687</v>
+        <v>0.1342707282977406</v>
       </c>
     </row>
     <row r="6">
@@ -9113,19 +9113,19 @@
         <v>28256</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19283</v>
+        <v>18967</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40455</v>
+        <v>41778</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0965348916788827</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06587886272506484</v>
+        <v>0.06480103570880102</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1382137080121945</v>
+        <v>0.1427318440517901</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>43</v>
@@ -9134,19 +9134,19 @@
         <v>43981</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31081</v>
+        <v>30874</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57046</v>
+        <v>55794</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1528848392670816</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1080412237833103</v>
+        <v>0.1073219722610809</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1982990073024454</v>
+        <v>0.1939458283902648</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -9155,19 +9155,19 @@
         <v>72237</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>57835</v>
+        <v>56840</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>92824</v>
+        <v>90461</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1244659272765946</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0996500319209882</v>
+        <v>0.09793633481021864</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1599362878335052</v>
+        <v>0.1558655288962985</v>
       </c>
     </row>
     <row r="7">
@@ -9184,19 +9184,19 @@
         <v>38097</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28348</v>
+        <v>28684</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51473</v>
+        <v>51831</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1301556737456409</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09684812524114812</v>
+        <v>0.09799726048507183</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1758554043627099</v>
+        <v>0.1770783082636115</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -9205,19 +9205,19 @@
         <v>21374</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13458</v>
+        <v>13701</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31987</v>
+        <v>32933</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07429772131044202</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04678276394705642</v>
+        <v>0.0476281611415931</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1111918452730351</v>
+        <v>0.1144794886325133</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -9226,19 +9226,19 @@
         <v>59470</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45981</v>
+        <v>46248</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75445</v>
+        <v>76611</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1024685058837567</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07922620666340033</v>
+        <v>0.07968552205559881</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1299929750236846</v>
+        <v>0.1320014003684969</v>
       </c>
     </row>
     <row r="8">
@@ -9255,19 +9255,19 @@
         <v>142772</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>124542</v>
+        <v>124688</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>160902</v>
+        <v>160363</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.487773260380421</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.425491175023588</v>
+        <v>0.4259917814973814</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5497146917249321</v>
+        <v>0.5478723244717421</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>61</v>
@@ -9276,19 +9276,19 @@
         <v>62815</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50360</v>
+        <v>49528</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>78596</v>
+        <v>79411</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2183542288730679</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1750567519435045</v>
+        <v>0.1721672516535044</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2732089704661185</v>
+        <v>0.2760444845385476</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>187</v>
@@ -9297,19 +9297,19 @@
         <v>205587</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>183160</v>
+        <v>182101</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>229772</v>
+        <v>232095</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3542300561395549</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3155874644666811</v>
+        <v>0.3137629026376382</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.395899873496888</v>
+        <v>0.3999038907402976</v>
       </c>
     </row>
     <row r="9">
@@ -9401,19 +9401,19 @@
         <v>17239</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9287</v>
+        <v>8978</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28276</v>
+        <v>28300</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03437425784153957</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01851826180768077</v>
+        <v>0.01790112402802551</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05638140027194121</v>
+        <v>0.05642794102710964</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -9422,19 +9422,19 @@
         <v>51500</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38698</v>
+        <v>38480</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67403</v>
+        <v>66495</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09866963707692934</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07414294828875849</v>
+        <v>0.07372465415071448</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1291379315664941</v>
+        <v>0.1273991430626099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -9443,19 +9443,19 @@
         <v>68739</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54063</v>
+        <v>54139</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87983</v>
+        <v>86951</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06716339627596439</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05282346430677815</v>
+        <v>0.05289825221667204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08596622134329793</v>
+        <v>0.0849580151781848</v>
       </c>
     </row>
     <row r="11">
@@ -9472,19 +9472,19 @@
         <v>174276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>153833</v>
+        <v>154382</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>199243</v>
+        <v>196644</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3474945491990135</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3067333335071179</v>
+        <v>0.3078272432560397</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3972766101705464</v>
+        <v>0.3920952432005236</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>185</v>
@@ -9493,19 +9493,19 @@
         <v>197925</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>175378</v>
+        <v>179028</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>220368</v>
+        <v>221157</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3792093023129738</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3360114535123088</v>
+        <v>0.3430027182467506</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4222081650200908</v>
+        <v>0.4237193418363751</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>349</v>
@@ -9514,19 +9514,19 @@
         <v>372201</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>341050</v>
+        <v>339574</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>401864</v>
+        <v>404764</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3636683309331581</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3332310407058587</v>
+        <v>0.3317890117038126</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.392651340621028</v>
+        <v>0.3954849057629036</v>
       </c>
     </row>
     <row r="12">
@@ -9543,19 +9543,19 @@
         <v>116440</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>97085</v>
+        <v>99041</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>138872</v>
+        <v>135981</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2321731880611939</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1935814537409309</v>
+        <v>0.1974804521810554</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2769007641005201</v>
+        <v>0.2711363675189972</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>106</v>
@@ -9564,19 +9564,19 @@
         <v>113682</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>95987</v>
+        <v>94348</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>132561</v>
+        <v>132397</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2178056162114044</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1839043063179213</v>
+        <v>0.1807625551452418</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2539756663405032</v>
+        <v>0.2536631638076944</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>218</v>
@@ -9585,19 +9585,19 @@
         <v>230122</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>205590</v>
+        <v>200589</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>256958</v>
+        <v>258247</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.224846062722613</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2008768277616363</v>
+        <v>0.1959902535113302</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2510669397149072</v>
+        <v>0.2523262509995538</v>
       </c>
     </row>
     <row r="13">
@@ -9614,19 +9614,19 @@
         <v>15614</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9160</v>
+        <v>9032</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24244</v>
+        <v>25114</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03113387641652176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01826503726068776</v>
+        <v>0.01801017158135776</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0483403051548594</v>
+        <v>0.05007543501825472</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -9635,19 +9635,19 @@
         <v>16690</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9392</v>
+        <v>10036</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25798</v>
+        <v>25630</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03197624876318741</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01799366762053509</v>
+        <v>0.01922900528926629</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04942734750010974</v>
+        <v>0.04910480653509337</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -9656,19 +9656,19 @@
         <v>32304</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22219</v>
+        <v>22891</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45443</v>
+        <v>45047</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03156346659573247</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02170987522034002</v>
+        <v>0.02236637417979667</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04440133255601447</v>
+        <v>0.04401432318338675</v>
       </c>
     </row>
     <row r="14">
@@ -9685,19 +9685,19 @@
         <v>177952</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>154788</v>
+        <v>157431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>199519</v>
+        <v>199706</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3548241284817312</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3086365939403039</v>
+        <v>0.3139062625085225</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3978275528813662</v>
+        <v>0.3982002155732051</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -9706,19 +9706,19 @@
         <v>142145</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>122055</v>
+        <v>122088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>164551</v>
+        <v>162489</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2723391956355051</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.233847599601952</v>
+        <v>0.2339109913937583</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3152669039094349</v>
+        <v>0.3113158752877057</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>298</v>
@@ -9727,19 +9727,19 @@
         <v>320097</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>290701</v>
+        <v>289291</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>352138</v>
+        <v>351729</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.312758743472532</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2840370187549687</v>
+        <v>0.282659441038159</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3440652681197311</v>
+        <v>0.3436659352055716</v>
       </c>
     </row>
     <row r="15">
@@ -9831,19 +9831,19 @@
         <v>14866</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8151</v>
+        <v>8410</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23165</v>
+        <v>23021</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04680867444361454</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02566559974674701</v>
+        <v>0.02648011931202243</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07293733287966622</v>
+        <v>0.07248460334887188</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -9852,19 +9852,19 @@
         <v>12917</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6976</v>
+        <v>7079</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21778</v>
+        <v>21841</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03840886825832814</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02074382429633594</v>
+        <v>0.02104980353905735</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06475692966642373</v>
+        <v>0.06494346680707445</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -9873,19 +9873,19 @@
         <v>27784</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19336</v>
+        <v>18473</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39682</v>
+        <v>39349</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04248861754700103</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02956917953910309</v>
+        <v>0.02824941039250725</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06068393884855891</v>
+        <v>0.06017514885944211</v>
       </c>
     </row>
     <row r="17">
@@ -9902,19 +9902,19 @@
         <v>65125</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52815</v>
+        <v>51793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80508</v>
+        <v>81448</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2050526242148709</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1662942424626913</v>
+        <v>0.1630768682761013</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2534864338755884</v>
+        <v>0.2564461930173758</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>131</v>
@@ -9923,19 +9923,19 @@
         <v>128723</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>110773</v>
+        <v>108378</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>145995</v>
+        <v>146497</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3827508500878081</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3293779524017641</v>
+        <v>0.3222576589227644</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4341106570050031</v>
+        <v>0.4356011706626489</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>199</v>
@@ -9944,19 +9944,19 @@
         <v>193847</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>170771</v>
+        <v>170206</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>216635</v>
+        <v>218632</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2964435955378828</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2611542958147211</v>
+        <v>0.2602902924135451</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3312914123889965</v>
+        <v>0.3343463857658892</v>
       </c>
     </row>
     <row r="18">
@@ -9973,19 +9973,19 @@
         <v>108339</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>92553</v>
+        <v>92668</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>124297</v>
+        <v>124782</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3411181923599822</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2914117107253753</v>
+        <v>0.2917743615624002</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.391361282099616</v>
+        <v>0.3928907399523139</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>97</v>
@@ -9994,19 +9994,19 @@
         <v>99019</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>82334</v>
+        <v>82245</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>116508</v>
+        <v>116399</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.29442857674687</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.24481518311912</v>
+        <v>0.2445530184936638</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.346430253305181</v>
+        <v>0.3461068264612986</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>211</v>
@@ -10015,19 +10015,19 @@
         <v>207358</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>185303</v>
+        <v>184257</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>230509</v>
+        <v>230616</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3171055197482055</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2833770324101291</v>
+        <v>0.2817773397426406</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3525086433828834</v>
+        <v>0.3526722285463566</v>
       </c>
     </row>
     <row r="19">
@@ -10044,19 +10044,19 @@
         <v>50313</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38391</v>
+        <v>38404</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64336</v>
+        <v>64725</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1584163848218634</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1208788192816837</v>
+        <v>0.1209186776834007</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2025689804979615</v>
+        <v>0.2037938566558847</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -10065,19 +10065,19 @@
         <v>29438</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20469</v>
+        <v>20334</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41064</v>
+        <v>41521</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08753359609132973</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06086515372053805</v>
+        <v>0.06046104004899579</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1221018313095941</v>
+        <v>0.1234597880452813</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>80</v>
@@ -10086,19 +10086,19 @@
         <v>79752</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64704</v>
+        <v>65327</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>96996</v>
+        <v>96854</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1219610579307586</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09894958794641329</v>
+        <v>0.09990159027178007</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1483320759548148</v>
+        <v>0.1481145490079221</v>
       </c>
     </row>
     <row r="20">
@@ -10115,19 +10115,19 @@
         <v>78957</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>65119</v>
+        <v>65067</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>97688</v>
+        <v>94526</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2486041241596689</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2050332143438822</v>
+        <v>0.2048694681613387</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3075810136267267</v>
+        <v>0.2976241565630265</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -10136,19 +10136,19 @@
         <v>66212</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>52441</v>
+        <v>53429</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>82724</v>
+        <v>85302</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1968781088156641</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1559323836672807</v>
+        <v>0.1588697585307114</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2459754755551759</v>
+        <v>0.2536423029430696</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>149</v>
@@ -10157,19 +10157,19 @@
         <v>145169</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>127194</v>
+        <v>125613</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>166903</v>
+        <v>167187</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2220012092361521</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1945125412789821</v>
+        <v>0.1920955535192451</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2552380928179865</v>
+        <v>0.2556731222337298</v>
       </c>
     </row>
     <row r="21">
@@ -10261,19 +10261,19 @@
         <v>59209</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45175</v>
+        <v>46492</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72956</v>
+        <v>75645</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1604593555977093</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1224259273782986</v>
+        <v>0.125995213177419</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1977148071293902</v>
+        <v>0.2050023858075465</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>114</v>
@@ -10282,19 +10282,19 @@
         <v>122064</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>105497</v>
+        <v>103636</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>142126</v>
+        <v>140512</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3151797337732781</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2724038413842412</v>
+        <v>0.2675966885434702</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3669813378126747</v>
+        <v>0.3628158229138919</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>171</v>
@@ -10303,19 +10303,19 @@
         <v>181273</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>158697</v>
+        <v>157766</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>205873</v>
+        <v>205893</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2396899276837104</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2098389892680178</v>
+        <v>0.2086075522448892</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.272217845010129</v>
+        <v>0.2722437401135809</v>
       </c>
     </row>
     <row r="23">
@@ -10332,19 +10332,19 @@
         <v>44784</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>32891</v>
+        <v>32564</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>59608</v>
+        <v>58971</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.121366564582943</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08913609690473832</v>
+        <v>0.08824994662882638</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1615406750661358</v>
+        <v>0.159812655492054</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>39</v>
@@ -10353,19 +10353,19 @@
         <v>39452</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>29309</v>
+        <v>29557</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>54519</v>
+        <v>53634</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1018689685004529</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07567734900073836</v>
+        <v>0.07631990717507262</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1407729126690429</v>
+        <v>0.138487779850308</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>81</v>
@@ -10374,19 +10374,19 @@
         <v>84236</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>67407</v>
+        <v>67005</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>102002</v>
+        <v>102190</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1113820640915824</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08912906558744604</v>
+        <v>0.08859854579568856</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1348733679658382</v>
+        <v>0.1351218900582632</v>
       </c>
     </row>
     <row r="24">
@@ -10403,19 +10403,19 @@
         <v>36147</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25832</v>
+        <v>25693</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>48851</v>
+        <v>49624</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09796066231969201</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07000693953111924</v>
+        <v>0.06962777938279309</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1323891455950433</v>
+        <v>0.1344829330472334</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>36</v>
@@ -10424,19 +10424,19 @@
         <v>38018</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>27240</v>
+        <v>26096</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>51524</v>
+        <v>51503</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09816668938354728</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07033490378662768</v>
+        <v>0.06738277900746398</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1330384877143675</v>
+        <v>0.1329851943376329</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>70</v>
@@ -10445,19 +10445,19 @@
         <v>74166</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>59056</v>
+        <v>57473</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>90375</v>
+        <v>91273</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09806616647064445</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07808680469932816</v>
+        <v>0.07599462746017595</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1194988471774534</v>
+        <v>0.1206864406594212</v>
       </c>
     </row>
     <row r="25">
@@ -10474,19 +10474,19 @@
         <v>35855</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26402</v>
+        <v>24919</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50108</v>
+        <v>48873</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09716732675821355</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0715512842459627</v>
+        <v>0.0675311074585033</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1357948074264949</v>
+        <v>0.1324479308651858</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -10495,19 +10495,19 @@
         <v>25293</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16479</v>
+        <v>16537</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35706</v>
+        <v>36722</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06530859747936452</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04254973634987912</v>
+        <v>0.04269985685768653</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09219539515978033</v>
+        <v>0.0948184407203565</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -10516,19 +10516,19 @@
         <v>61147</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46829</v>
+        <v>47171</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>76372</v>
+        <v>78825</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08085282845837147</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06192005709713664</v>
+        <v>0.0623729612464141</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.100984261707671</v>
+        <v>0.1042277731746469</v>
       </c>
     </row>
     <row r="26">
@@ -10545,19 +10545,19 @@
         <v>193003</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>173218</v>
+        <v>171111</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>211377</v>
+        <v>211637</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5230460907414421</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.46942885472776</v>
+        <v>0.4637176545246292</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5728410730173917</v>
+        <v>0.5735457702198425</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>144</v>
@@ -10566,19 +10566,19 @@
         <v>162456</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>142758</v>
+        <v>143637</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>182035</v>
+        <v>183568</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4194760108633572</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3686144599889092</v>
+        <v>0.3708837284374336</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4700319411075984</v>
+        <v>0.4739882720474791</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>330</v>
@@ -10587,19 +10587,19 @@
         <v>355459</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>327361</v>
+        <v>328055</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>382221</v>
+        <v>384709</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4700090132956913</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4328561515047035</v>
+        <v>0.4337742057704784</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5053951465624544</v>
+        <v>0.50868467931332</v>
       </c>
     </row>
     <row r="27">
@@ -10691,19 +10691,19 @@
         <v>21741</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13591</v>
+        <v>14363</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>31846</v>
+        <v>31935</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.102929864676212</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06434525588456223</v>
+        <v>0.0679993884358497</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.150771145884141</v>
+        <v>0.1511944884845495</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>30</v>
@@ -10712,19 +10712,19 @@
         <v>28990</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>20039</v>
+        <v>20360</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>39780</v>
+        <v>40321</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1326251302329931</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09167705885550249</v>
+        <v>0.09314243863020674</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1819860074542432</v>
+        <v>0.184461185183195</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>52</v>
@@ -10733,19 +10733,19 @@
         <v>50731</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>38052</v>
+        <v>38583</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>64983</v>
+        <v>64658</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1180319545362338</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08853274299033381</v>
+        <v>0.08976729291379641</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1511912989461204</v>
+        <v>0.1504337020169209</v>
       </c>
     </row>
     <row r="29">
@@ -10762,19 +10762,19 @@
         <v>48678</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>37093</v>
+        <v>36935</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>62332</v>
+        <v>62436</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2304577582500145</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1756132918676824</v>
+        <v>0.1748658796803513</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2951044130186716</v>
+        <v>0.2955961482602736</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>75</v>
@@ -10783,19 +10783,19 @@
         <v>69718</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>57272</v>
+        <v>57388</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>82472</v>
+        <v>82551</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3189471621859644</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2620085042914145</v>
+        <v>0.2625392863298951</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.377295440365004</v>
+        <v>0.37765869444161</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>123</v>
@@ -10804,7 +10804,7 @@
         <v>118395</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>102064</v>
+        <v>101125</v>
       </c>
       <c r="T29" s="5" t="n">
         <v>137658</v>
@@ -10813,10 +10813,10 @@
         <v>0.2754607210066587</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2374636768602489</v>
+        <v>0.2352794480009534</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3202775534223159</v>
+        <v>0.3202783602208366</v>
       </c>
     </row>
     <row r="30">
@@ -10833,19 +10833,19 @@
         <v>46386</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>35180</v>
+        <v>35202</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>59925</v>
+        <v>58419</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2196108251962379</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1665577701694274</v>
+        <v>0.1666595304903955</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2837061203301735</v>
+        <v>0.2765776955828128</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>56</v>
@@ -10854,19 +10854,19 @@
         <v>53998</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>42982</v>
+        <v>42462</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>67690</v>
+        <v>66732</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2470314519422056</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1966346935842328</v>
+        <v>0.1942587337131448</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3096696560261661</v>
+        <v>0.3052869657721832</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>102</v>
@@ -10875,19 +10875,19 @@
         <v>100384</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>82698</v>
+        <v>84148</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>117100</v>
+        <v>119329</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2335561043971897</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1924075201114311</v>
+        <v>0.1957810243449122</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2724470477942744</v>
+        <v>0.2776340509984516</v>
       </c>
     </row>
     <row r="31">
@@ -10904,19 +10904,19 @@
         <v>16541</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>9678</v>
+        <v>10231</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25016</v>
+        <v>25038</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07830912411549805</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04581928236025719</v>
+        <v>0.04843843255279098</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1184335209974654</v>
+        <v>0.1185400319833364</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -10925,19 +10925,19 @@
         <v>16785</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10521</v>
+        <v>10102</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>26359</v>
+        <v>25749</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07678731208323901</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04813089767738924</v>
+        <v>0.04621640597004553</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1205903179794139</v>
+        <v>0.1177983081731883</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>33</v>
@@ -10946,19 +10946,19 @@
         <v>33325</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>23605</v>
+        <v>23970</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>45712</v>
+        <v>45779</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0775351777765676</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05491920527530482</v>
+        <v>0.05576826065984759</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1063541015107762</v>
+        <v>0.1065101516722661</v>
       </c>
     </row>
     <row r="32">
@@ -10975,19 +10975,19 @@
         <v>77876</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>63461</v>
+        <v>64715</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>92552</v>
+        <v>91503</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3686924277620376</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3004465729525008</v>
+        <v>0.3063866443027274</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4381772704932619</v>
+        <v>0.4332112615886459</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>46</v>
@@ -10996,19 +10996,19 @@
         <v>49097</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37058</v>
+        <v>37934</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62619</v>
+        <v>61860</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2246089435555979</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1695348177316604</v>
+        <v>0.1735403784045374</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2864704959825894</v>
+        <v>0.2829977709582614</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>125</v>
@@ -11017,19 +11017,19 @@
         <v>126972</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>109148</v>
+        <v>110518</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>146541</v>
+        <v>147676</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2954160422833502</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2539457968415818</v>
+        <v>0.2571334097966951</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3409456369372624</v>
+        <v>0.3435867557699586</v>
       </c>
     </row>
     <row r="33">
@@ -11121,19 +11121,19 @@
         <v>25387</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>16434</v>
+        <v>16452</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>36881</v>
+        <v>36382</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09718257780468459</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06291150269005727</v>
+        <v>0.06298182955854202</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1411866237242169</v>
+        <v>0.1392735048310267</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>43</v>
@@ -11142,19 +11142,19 @@
         <v>42639</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>32346</v>
+        <v>32170</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>56007</v>
+        <v>55336</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1567393544526117</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1189017566022298</v>
+        <v>0.1182557565222588</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2058781744152939</v>
+        <v>0.2034104617661699</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>67</v>
@@ -11163,19 +11163,19 @@
         <v>68026</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>54006</v>
+        <v>54283</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>83982</v>
+        <v>85142</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1275648387429055</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1012751344312776</v>
+        <v>0.101793206003422</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1574862548298522</v>
+        <v>0.1596619521490982</v>
       </c>
     </row>
     <row r="35">
@@ -11192,19 +11192,19 @@
         <v>38130</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>26809</v>
+        <v>27653</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>49289</v>
+        <v>50205</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1459646152088993</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.102629490674235</v>
+        <v>0.1058606779943966</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1886855503794558</v>
+        <v>0.1921907285459856</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>49</v>
@@ -11213,19 +11213,19 @@
         <v>48543</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>37585</v>
+        <v>37121</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>62159</v>
+        <v>62352</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1784407975116282</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1381599223257481</v>
+        <v>0.1364561077882854</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2284913270813758</v>
+        <v>0.2292041144975971</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>87</v>
@@ -11234,19 +11234,19 @@
         <v>86672</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>71207</v>
+        <v>71319</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>104669</v>
+        <v>103514</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1625319967989351</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1335295479372838</v>
+        <v>0.1337396224698353</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1962797504555953</v>
+        <v>0.1941144142859633</v>
       </c>
     </row>
     <row r="36">
@@ -11263,19 +11263,19 @@
         <v>36054</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>26761</v>
+        <v>25832</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>48796</v>
+        <v>47883</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1380195033502776</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1024451268609243</v>
+        <v>0.09888722133828787</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1867963842120956</v>
+        <v>0.1833021127693555</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>44</v>
@@ -11284,19 +11284,19 @@
         <v>44434</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>32876</v>
+        <v>33880</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>57028</v>
+        <v>59491</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.163335304884104</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1208515387128837</v>
+        <v>0.1245406848781289</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.209633167494902</v>
+        <v>0.2186863773503858</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>80</v>
@@ -11305,19 +11305,19 @@
         <v>80488</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>64175</v>
+        <v>65421</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>97764</v>
+        <v>98973</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1509340922745205</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1203431513606739</v>
+        <v>0.1226805247451488</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.18333135236238</v>
+        <v>0.1855981108176399</v>
       </c>
     </row>
     <row r="37">
@@ -11334,19 +11334,19 @@
         <v>11176</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5570</v>
+        <v>5610</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>19896</v>
+        <v>19949</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04278443757034003</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02132193076898415</v>
+        <v>0.02147733927288933</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07616484918544215</v>
+        <v>0.07636529792929111</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>6</v>
@@ -11355,19 +11355,19 @@
         <v>5627</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2665</v>
+        <v>1909</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>11875</v>
+        <v>11450</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02068287375853456</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.009795565654324396</v>
+        <v>0.007016757361778329</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0436510674482806</v>
+        <v>0.04209051915523856</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>16</v>
@@ -11376,19 +11376,19 @@
         <v>16803</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10498</v>
+        <v>9654</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>26509</v>
+        <v>26434</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03150955809117356</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01968589743159506</v>
+        <v>0.01810418936074673</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04971134535338515</v>
+        <v>0.04956975019867642</v>
       </c>
     </row>
     <row r="38">
@@ -11405,19 +11405,19 @@
         <v>150478</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>134787</v>
+        <v>133670</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>166262</v>
+        <v>167793</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5760488660657985</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5159794425719112</v>
+        <v>0.511703904770681</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6364696418711354</v>
+        <v>0.6423305575948631</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>120</v>
@@ -11426,19 +11426,19 @@
         <v>130797</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>114555</v>
+        <v>114282</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>146925</v>
+        <v>147115</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4808016693931216</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4210994671123844</v>
+        <v>0.420095710556955</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5400874430332012</v>
+        <v>0.540785982866038</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>269</v>
@@ -11447,19 +11447,19 @@
         <v>281275</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>259472</v>
+        <v>257888</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>304877</v>
+        <v>302731</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5274595140924654</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.486573069859305</v>
+        <v>0.4836029821108394</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5717192420408345</v>
+        <v>0.5676946195384036</v>
       </c>
     </row>
     <row r="39">
@@ -11551,19 +11551,19 @@
         <v>104140</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>84160</v>
+        <v>86200</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>124247</v>
+        <v>125544</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1601890977729255</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1294547566231735</v>
+        <v>0.1325934751873089</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1911179198238785</v>
+        <v>0.1931123997719402</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>161</v>
@@ -11572,19 +11572,19 @@
         <v>172467</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>149716</v>
+        <v>148695</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>193665</v>
+        <v>195661</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2512495484203656</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2181053099511733</v>
+        <v>0.2166183671796491</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2821306418881596</v>
+        <v>0.2850388285064034</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>252</v>
@@ -11593,19 +11593,19 @@
         <v>276607</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>245797</v>
+        <v>248317</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>308509</v>
+        <v>307866</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.206956901326576</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1839045615490309</v>
+        <v>0.1857902126374138</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2308259789946481</v>
+        <v>0.2303446224860966</v>
       </c>
     </row>
     <row r="41">
@@ -11622,19 +11622,19 @@
         <v>153858</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>131685</v>
+        <v>131147</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>178615</v>
+        <v>178583</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2366650678018041</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2025580050326562</v>
+        <v>0.2017311809944364</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2747465786738116</v>
+        <v>0.2746971991601429</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>186</v>
@@ -11643,19 +11643,19 @@
         <v>192850</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>170582</v>
+        <v>171253</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>218459</v>
+        <v>218542</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2809438617902491</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2485028462306875</v>
+        <v>0.2494811991612176</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3182504671013794</v>
+        <v>0.3183710577101601</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>318</v>
@@ -11664,19 +11664,19 @@
         <v>346708</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>314137</v>
+        <v>316674</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>379536</v>
+        <v>384215</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2594062460424191</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2350368778106695</v>
+        <v>0.2369346265054191</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2839676847982213</v>
+        <v>0.2874685639460817</v>
       </c>
     </row>
     <row r="42">
@@ -11693,19 +11693,19 @@
         <v>125215</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>102494</v>
+        <v>104197</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>149368</v>
+        <v>146099</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1926057524343281</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1576571421611117</v>
+        <v>0.1602772021432085</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2297584441220135</v>
+        <v>0.2247296694633148</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>94</v>
@@ -11714,19 +11714,19 @@
         <v>100002</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>83169</v>
+        <v>82722</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>119898</v>
+        <v>120773</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1456831173567978</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1211600539783313</v>
+        <v>0.1205094354158948</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1746669635571372</v>
+        <v>0.1759412364039298</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>202</v>
@@ -11735,19 +11735,19 @@
         <v>225217</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>196785</v>
+        <v>197862</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>255066</v>
+        <v>254765</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1685067219120444</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1472344193538845</v>
+        <v>0.1480399412112785</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1908397502995147</v>
+        <v>0.1906144594796024</v>
       </c>
     </row>
     <row r="43">
@@ -11764,19 +11764,19 @@
         <v>59639</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>44483</v>
+        <v>45572</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>77336</v>
+        <v>77248</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.09173769295762176</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.06842406859959566</v>
+        <v>0.07009955942179596</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1189591713281967</v>
+        <v>0.1188228254614316</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>38</v>
@@ -11785,19 +11785,19 @@
         <v>39643</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>28571</v>
+        <v>28832</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>54199</v>
+        <v>52679</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.05775178396100091</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04162285371293326</v>
+        <v>0.04200170463014044</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0789569175367499</v>
+        <v>0.07674281851105119</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>90</v>
@@ -11806,19 +11806,19 @@
         <v>99282</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>80486</v>
+        <v>80241</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>120552</v>
+        <v>117942</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07428284505993139</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06021966533118115</v>
+        <v>0.06003597308838586</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0901968127598687</v>
+        <v>0.0882442352119949</v>
       </c>
     </row>
     <row r="44">
@@ -11835,19 +11835,19 @@
         <v>207256</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>181226</v>
+        <v>183115</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>233198</v>
+        <v>232725</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3188023890333205</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2787624243716099</v>
+        <v>0.2816688613388984</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.358707019035192</v>
+        <v>0.3579785232341628</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>163</v>
@@ -11856,19 +11856,19 @@
         <v>181475</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>159521</v>
+        <v>157660</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>207421</v>
+        <v>204191</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2643716884715867</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2323895582902779</v>
+        <v>0.2296793500857068</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3021711645871455</v>
+        <v>0.2974647728379174</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>354</v>
@@ -11877,19 +11877,19 @@
         <v>388730</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>353714</v>
+        <v>351719</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>422497</v>
+        <v>422250</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2908472856590292</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2646483069302404</v>
+        <v>0.263155478397526</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3161112364629414</v>
+        <v>0.3159266383551976</v>
       </c>
     </row>
     <row r="45">
@@ -11981,19 +11981,19 @@
         <v>46077</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>34584</v>
+        <v>33385</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>62059</v>
+        <v>61105</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.05924718380472933</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.04446846497262968</v>
+        <v>0.04292731828402421</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.07979652696326463</v>
+        <v>0.07856942802061202</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>69</v>
@@ -12002,19 +12002,19 @@
         <v>77471</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>59842</v>
+        <v>61091</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>95151</v>
+        <v>96495</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.09377118954573695</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.07243358043945428</v>
+        <v>0.07394560382502084</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1151710620213795</v>
+        <v>0.116798443212639</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>109</v>
@@ -12023,19 +12023,19 @@
         <v>123548</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>99608</v>
+        <v>101442</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>150519</v>
+        <v>147126</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.07703064365425988</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.06210457987384142</v>
+        <v>0.06324796265270199</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09384667114087648</v>
+        <v>0.09173137578379595</v>
       </c>
     </row>
     <row r="47">
@@ -12052,19 +12052,19 @@
         <v>194894</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>170179</v>
+        <v>169888</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>219698</v>
+        <v>218568</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2505974680718314</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2188187733528767</v>
+        <v>0.2184452144386246</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2824916137539839</v>
+        <v>0.2810377228472302</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>291</v>
@@ -12073,19 +12073,19 @@
         <v>312828</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>286682</v>
+        <v>287731</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>344809</v>
+        <v>343351</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3786502725562169</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3470020296977565</v>
+        <v>0.3482719386134689</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4173594261966773</v>
+        <v>0.4155947757780029</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>481</v>
@@ -12094,19 +12094,19 @@
         <v>507722</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>468738</v>
+        <v>473394</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>548422</v>
+        <v>544197</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3165580035974923</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2922518112656239</v>
+        <v>0.2951547980577034</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3419337753935239</v>
+        <v>0.3392994233253095</v>
       </c>
     </row>
     <row r="48">
@@ -12123,19 +12123,19 @@
         <v>259053</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>233100</v>
+        <v>235254</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>285925</v>
+        <v>286805</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.333094670025467</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2997241196386835</v>
+        <v>0.3024937642335661</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3676465151718432</v>
+        <v>0.3687784066083635</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>227</v>
@@ -12144,19 +12144,19 @@
         <v>244192</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>217571</v>
+        <v>217242</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>270834</v>
+        <v>271866</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2955716116267125</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.263349779254659</v>
+        <v>0.2629512587028767</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.327820495498386</v>
+        <v>0.3290693668252115</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>478</v>
@@ -12165,19 +12165,19 @@
         <v>503245</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>467005</v>
+        <v>466792</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>543452</v>
+        <v>544790</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3137663856000814</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2911711765220166</v>
+        <v>0.2910384489324161</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3388349357747816</v>
+        <v>0.3396694132423778</v>
       </c>
     </row>
     <row r="49">
@@ -12194,19 +12194,19 @@
         <v>51891</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>38861</v>
+        <v>39368</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>67932</v>
+        <v>68569</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.06672184244234851</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.04996753254781707</v>
+        <v>0.05061980396449622</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.08734829586915811</v>
+        <v>0.08816679244366846</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>43</v>
@@ -12215,19 +12215,19 @@
         <v>48080</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>35933</v>
+        <v>35672</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>64211</v>
+        <v>65282</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.05819657288357629</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.0434930498293309</v>
+        <v>0.04317733501567713</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.07772159298627888</v>
+        <v>0.07901766914613065</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>94</v>
@@ -12236,19 +12236,19 @@
         <v>99971</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>82094</v>
+        <v>81266</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>120034</v>
+        <v>121656</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.06233044041205717</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.05118473843942443</v>
+        <v>0.05066857497491223</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.07483942709716325</v>
+        <v>0.07585072042448908</v>
       </c>
     </row>
     <row r="50">
@@ -12265,19 +12265,19 @@
         <v>225801</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>200229</v>
+        <v>200176</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>253512</v>
+        <v>252310</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2903388356556239</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2574576646562186</v>
+        <v>0.2573901600297291</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.325969487955897</v>
+        <v>0.3244244016594187</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>125</v>
@@ -12286,19 +12286,19 @@
         <v>143596</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>122859</v>
+        <v>119626</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>168152</v>
+        <v>166471</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1738103533877573</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.148709972790267</v>
+        <v>0.1447960128179981</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2035327859513232</v>
+        <v>0.2014983852835687</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>342</v>
@@ -12307,19 +12307,19 @@
         <v>369398</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>337746</v>
+        <v>337056</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>407442</v>
+        <v>407713</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2303145267361092</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2105802667783628</v>
+        <v>0.210150054949282</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.25403487748566</v>
+        <v>0.2542035554276607</v>
       </c>
     </row>
     <row r="51">
@@ -12411,19 +12411,19 @@
         <v>348394</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>310426</v>
+        <v>310298</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>382607</v>
+        <v>387346</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1030418618226169</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.09181241988190315</v>
+        <v>0.09177453342942397</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1131607817326188</v>
+        <v>0.1145624577055722</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>590</v>
@@ -12432,19 +12432,19 @@
         <v>630107</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>584911</v>
+        <v>584769</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>677037</v>
+        <v>683543</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1781754146714156</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1653955193545008</v>
+        <v>0.1653551180190765</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1914457298071703</v>
+        <v>0.1932856443580741</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>908</v>
@@ -12453,19 +12453,19 @@
         <v>978501</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>918996</v>
+        <v>915230</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1041898</v>
+        <v>1039270</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1414522860244374</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.132850282116652</v>
+        <v>0.1323057823925287</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1506169781395684</v>
+        <v>0.1502370267978508</v>
       </c>
     </row>
     <row r="53">
@@ -12482,19 +12482,19 @@
         <v>743587</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>699430</v>
+        <v>696294</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>793093</v>
+        <v>795721</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2199249875269568</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2068651220569931</v>
+        <v>0.2059377532916291</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2345670798852716</v>
+        <v>0.2353443456228028</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>993</v>
@@ -12503,19 +12503,19 @@
         <v>1027486</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>976712</v>
+        <v>975235</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>1085556</v>
+        <v>1085927</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2905424921024696</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.276185100583605</v>
+        <v>0.2757673322099523</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.3069627105340799</v>
+        <v>0.3070676997485992</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1698</v>
@@ -12524,19 +12524,19 @@
         <v>1771073</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1691785</v>
+        <v>1703263</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1841708</v>
+        <v>1848318</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.2560266785022001</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.2445648558183375</v>
+        <v>0.2462241108219404</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2662377008680935</v>
+        <v>0.2671932252323665</v>
       </c>
     </row>
     <row r="54">
@@ -12553,19 +12553,19 @@
         <v>755891</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>709450</v>
+        <v>709717</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>803423</v>
+        <v>811792</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2235641008223244</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2098287959946193</v>
+        <v>0.2099077499148155</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2376223852663889</v>
+        <v>0.2400976095106948</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>703</v>
@@ -12574,19 +12574,19 @@
         <v>737326</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>694840</v>
+        <v>689198</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>790039</v>
+        <v>784997</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2084937575597863</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1964799885082668</v>
+        <v>0.1948846920571136</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2233994987717506</v>
+        <v>0.2219737596343767</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1430</v>
@@ -12595,19 +12595,19 @@
         <v>1493217</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1428634</v>
+        <v>1428396</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1565756</v>
+        <v>1567110</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2158597096996785</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2065236614063667</v>
+        <v>0.2064891598418716</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2263460572346194</v>
+        <v>0.226541765373829</v>
       </c>
     </row>
     <row r="55">
@@ -12624,19 +12624,19 @@
         <v>279126</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>251453</v>
+        <v>248406</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>315059</v>
+        <v>317762</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.08255493052327899</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.07437035153980551</v>
+        <v>0.07346908892866683</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.09318271728884982</v>
+        <v>0.09398207089486778</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>194</v>
@@ -12645,19 +12645,19 @@
         <v>202929</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>176475</v>
+        <v>176454</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>231199</v>
+        <v>232047</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.05738227362813887</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.04990181010966361</v>
+        <v>0.04989597788833253</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.06537607835331478</v>
+        <v>0.0656160112412138</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>459</v>
@@ -12666,19 +12666,19 @@
         <v>482055</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>437498</v>
+        <v>442091</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>525933</v>
+        <v>530548</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.06968594731979573</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.06324473928812663</v>
+        <v>0.06390877777903861</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.07602893928377226</v>
+        <v>0.07669617870127066</v>
       </c>
     </row>
     <row r="56">
@@ -12695,19 +12695,19 @@
         <v>1254095</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1199512</v>
+        <v>1201781</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1309910</v>
+        <v>1315516</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.3709141193048229</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3547704688293918</v>
+        <v>0.3554416062109928</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3874222270003584</v>
+        <v>0.3890801279285775</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>851</v>
@@ -12716,19 +12716,19 @@
         <v>938593</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>886510</v>
+        <v>887217</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>998180</v>
+        <v>990477</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2654060620381896</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2506786943751497</v>
+        <v>0.2508785827504819</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2822554773591152</v>
+        <v>0.2800773690288736</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2054</v>
@@ -12737,19 +12737,19 @@
         <v>2192688</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2116910</v>
+        <v>2104546</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2274126</v>
+        <v>2269753</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3169753784538883</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3060209327964304</v>
+        <v>0.3042335813551421</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3287481489389797</v>
+        <v>0.3281159131160808</v>
       </c>
     </row>
     <row r="57">
